--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,16 +436,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>=PROPER(IFERROR(LEFT(B2,FIND(" ",B2)-1),B2))</v>
+        <v>Dmitri</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Dmitri Nikolaenko</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Njord Law</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Latvia</v>
       </c>
       <c r="E2" t="str">
         <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
@@ -454,7 +454,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>dn@njordlaw.lv</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -532,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>=PROPER(IFERROR(LEFT(B5,FIND(" ",B5)-1),B5))</v>
+        <v>Giuseppe</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Giuseppe Abbruzzese</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Legance</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E5" t="str">
         <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
@@ -550,7 +550,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>gabbruzzese@legance.it</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>=PROPER(IFERROR(LEFT(B6,FIND(" ",B6)-1),B6))</v>
+        <v>Shiran</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Shiran Sofer</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Gornitzky And Co</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E6" t="str">
         <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
@@ -582,7 +582,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>shirans@gornitzky.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>=PROPER(IFERROR(LEFT(B7,FIND(" ",B7)-1),B7))</v>
+        <v>Robert</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>Robert Nader</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Forbes Hare</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>British Virgin Islands</v>
       </c>
       <c r="E7" t="str">
         <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
@@ -614,7 +614,7 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>robert.nader@forbeshare.com</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>=PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</v>
+        <v>Adi</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Adi Ron</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Fischer</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E10" t="str">
         <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
@@ -710,7 +710,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>aron@fbclawyers.com</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>=PROPER(IFERROR(LEFT(B11,FIND(" ",B11)-1),B11))</v>
+        <v>Qiuzhao</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>Qiuzhao Wang</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>TC Law Firm</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E11" t="str">
         <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
@@ -742,7 +742,7 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>wqc@tclawfirm.com</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>=PROPER(IFERROR(LEFT(B13,FIND(" ",B13)-1),B13))</v>
+        <v>Malek</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Malek Barudi Mjur (Oxford)</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Taylor Wessing</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E13" t="str">
         <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
@@ -806,7 +806,7 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>m.barudi@taylorwessing.com</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>=PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</v>
+        <v>David</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>David Goldman</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Gornitzky And Co</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E15" t="str">
         <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
@@ -870,7 +870,7 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>davidg@gornitzky.com</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Martin</v>
+        <v>Giuseppe</v>
       </c>
       <c r="B17" t="str">
-        <v>Martin Simovart</v>
+        <v>Giuseppe Abbruzzese</v>
       </c>
       <c r="C17" t="str">
-        <v>Cobalt Legal</v>
+        <v>Legance</v>
       </c>
       <c r="D17" t="str">
-        <v>Estonia</v>
+        <v>Italy</v>
       </c>
       <c r="E17" t="str">
         <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
@@ -934,7 +934,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>martin.simovart@cobalt.legal</v>
+        <v>gabbruzzese@legance.it</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>=PROPER(IFERROR(LEFT(B18,FIND(" ",B18)-1),B18))</v>
+        <v>Stefanos</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Stefanos Charaktiniotis</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Zepos And Yannopoulos</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>Greece</v>
       </c>
       <c r="E18" t="str">
         <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
@@ -966,7 +966,7 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>s.charaktiniotis@zeya.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>=PROPER(IFERROR(LEFT(B19,FIND(" ",B19)-1),B19))</v>
+        <v>Martin</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>Martin Leboutillier</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>Collas Crill</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>Bermuda</v>
       </c>
       <c r="E19" t="str">
         <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
@@ -998,7 +998,7 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>martin.leboutillier@collascrill.com</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>=PROPER(IFERROR(LEFT(B21,FIND(" ",B21)-1),B21))</v>
+        <v>Andrea</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>Andrea Calvi</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>Pedersoli</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E21" t="str">
         <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1062,7 +1062,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>acalvi@pglex.it</v>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>=PROPER(IFERROR(LEFT(B23,FIND(" ",B23)-1),B23))</v>
+        <v>Kevin</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Kevin Tsen</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>CFN Law</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E23" t="str">
         <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>kevin.tsen@cfnlaw.com.hk</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>=PROPER(IFERROR(LEFT(B25,FIND(" ",B25)-1),B25))</v>
+        <v>Simone</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>Simone Ambrogi</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Legance</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E25" t="str">
         <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1190,7 +1190,7 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>sambrogi@legance.it</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>=PROPER(IFERROR(LEFT(B26,FIND(" ",B26)-1),B26))</v>
+        <v>Ya-Chiao</v>
       </c>
       <c r="B26" t="str">
-        <v/>
+        <v>Ya-Chiao Chang</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>Winston And Strawn</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E26" t="str">
         <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1222,7 +1222,7 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>ychang@winston.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>=PROPER(IFERROR(LEFT(B27,FIND(" ",B27)-1),B27))</v>
+        <v>Andrew</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>Andrew Feighery</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Byrne Wallace</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>Ireland</v>
       </c>
       <c r="E27" t="str">
         <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1254,7 +1254,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>afeighery@byrnewallace.com</v>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,16 +1268,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>=PROPER(IFERROR(LEFT(B28,FIND(" ",B28)-1),B28))</v>
+        <v>Catherine</v>
       </c>
       <c r="B28" t="str">
-        <v/>
+        <v>Catherine Ross</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Forbes Hare</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>Singapore</v>
       </c>
       <c r="E28" t="str">
         <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1286,7 +1286,7 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>catherine.ross@forbeshare.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>=PROPER(IFERROR(LEFT(B29,FIND(" ",B29)-1),B29))</v>
+        <v>Hartwig</v>
       </c>
       <c r="B29" t="str">
-        <v/>
+        <v>Hartwig Kienast</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>Wolf Theiss</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>Austria</v>
       </c>
       <c r="E29" t="str">
         <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1318,7 +1318,7 @@
         <v/>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>hartwig.kienast@wolftheiss.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>=PROPER(IFERROR(LEFT(B31,FIND(" ",B31)-1),B31))</v>
+        <v>Henning</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>Henning Von Lillienskjold</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>DahlLaw</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>Denmark</v>
       </c>
       <c r="E31" t="str">
         <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1382,7 +1382,7 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>hvl@dahllaw.dk</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>=PROPER(IFERROR(LEFT(B32,FIND(" ",B32)-1),B32))</v>
+        <v>Achiron</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Achiron Jonathan</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>EBN</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E32" t="str">
         <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1414,7 +1414,7 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>jonathana@ebnlaw.co.il</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>=PROPER(IFERROR(LEFT(B33,FIND(" ",B33)-1),B33))</v>
+        <v>Mark</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>Mark Davis</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Mishcon Karas</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E33" t="str">
         <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1446,7 +1446,7 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>mark.davis@mishcon.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
+        <v>Wang</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Wang Haiyu (Nicole Wang)</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>Longan Law</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E34" t="str">
         <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1478,7 +1478,7 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>wanghaiyu@longanlaw.com</v>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1524,16 +1524,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
+        <v>Bai</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Bai Xianyue</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Grandall</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E36" t="str">
         <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1542,7 +1542,7 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>baixianyue@grandall.com.cn</v>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>=PROPER(IFERROR(LEFT(B37,FIND(" ",B37)-1),B37))</v>
+        <v>Christopher</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>Christopher Bromilow</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Forbes Hare</v>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>British Virgin Islands</v>
       </c>
       <c r="E37" t="str">
         <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>christopher.bromilow@forbeshare.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>=PROPER(IFERROR(LEFT(B38,FIND(" ",B38)-1),B38))</v>
+        <v>Jingzhong</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>Jingzhong Zhang</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>TC Law Firm</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E38" t="str">
         <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>undefined zhangjz@tclawfirm.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>=PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</v>
+        <v>Barry</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Barry Smith</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>Forbes Hare</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>Cayman Islands</v>
       </c>
       <c r="E42" t="str">
         <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1734,7 +1734,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>barry.smith@forbeshare.com</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>=PROPER(IFERROR(LEFT(B43,FIND(" ",B43)-1),B43))</v>
+        <v>Abramovich</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>Abramovich Menachem</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>EBN</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E43" t="str">
         <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1766,7 +1766,7 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>menachema@ebnlaw.co.il</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,16 +1780,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>=PROPER(IFERROR(LEFT(B44,FIND(" ",B44)-1),B44))</v>
+        <v>William</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>William Hare</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>Forbes Hare</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>British Virgin Islands</v>
       </c>
       <c r="E44" t="str">
         <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1798,7 +1798,7 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>william.hare@forbeshare.com</v>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>=PROPER(IFERROR(LEFT(B45,FIND(" ",B45)-1),B45))</v>
+        <v>Feng</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>Feng Tao</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>Longan Law</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E45" t="str">
         <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1830,7 +1830,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>fengtao@longanlaw.com</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
+        <v>Adam</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>Adam Kadesh</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>Fischer</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E47" t="str">
         <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1894,7 +1894,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>akadesh@fbclawyers.com</v>
       </c>
       <c r="P47" t="str">
         <v>Cote D&amp;apos;ivoire</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>=PROPER(IFERROR(LEFT(B49,FIND(" ",B49)-1),B49))</v>
+        <v>Fang</v>
       </c>
       <c r="B49" t="str">
-        <v/>
+        <v>Fang Ling</v>
       </c>
       <c r="C49" t="str">
-        <v/>
+        <v>Longan Law</v>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E49" t="str">
         <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1958,7 +1958,7 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>fangling@longanlaw.com</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>=PROPER(IFERROR(LEFT(B50,FIND(" ",B50)-1),B50))</v>
+        <v>Nitzan</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>Nitzan Aberbach</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>EBN</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E50" t="str">
         <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1990,7 +1990,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>nitzana@ebnlaw.co.il</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
+        <v>Ido</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>Ido Malin</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>Gornitzky And Co</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E52" t="str">
         <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
@@ -2054,7 +2054,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>idom@gornitzky.com</v>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,16 +436,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Dmitri</v>
+        <v>=PROPER(IFERROR(LEFT(B2,FIND(" ",B2)-1),B2))</v>
       </c>
       <c r="B2" t="str">
-        <v>Dmitri Nikolaenko</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>Njord Law</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>Latvia</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
@@ -454,7 +454,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>dn@njordlaw.lv</v>
+        <v/>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -532,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Giuseppe</v>
+        <v>=PROPER(IFERROR(LEFT(B5,FIND(" ",B5)-1),B5))</v>
       </c>
       <c r="B5" t="str">
-        <v>Giuseppe Abbruzzese</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>Legance</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
@@ -550,7 +550,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>gabbruzzese@legance.it</v>
+        <v/>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Shiran</v>
+        <v>=PROPER(IFERROR(LEFT(B6,FIND(" ",B6)-1),B6))</v>
       </c>
       <c r="B6" t="str">
-        <v>Shiran Sofer</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>Gornitzky And Co</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
@@ -582,7 +582,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>shirans@gornitzky.com</v>
+        <v/>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Robert</v>
+        <v>=PROPER(IFERROR(LEFT(B7,FIND(" ",B7)-1),B7))</v>
       </c>
       <c r="B7" t="str">
-        <v>Robert Nader</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>Forbes Hare</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>British Virgin Islands</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
@@ -614,7 +614,7 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>robert.nader@forbeshare.com</v>
+        <v/>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Adi</v>
+        <v>=PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</v>
       </c>
       <c r="B10" t="str">
-        <v>Adi Ron</v>
+        <v/>
       </c>
       <c r="C10" t="str">
-        <v>Fischer</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
@@ -710,7 +710,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>aron@fbclawyers.com</v>
+        <v/>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Qiuzhao</v>
+        <v>=PROPER(IFERROR(LEFT(B11,FIND(" ",B11)-1),B11))</v>
       </c>
       <c r="B11" t="str">
-        <v>Qiuzhao Wang</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v>TC Law Firm</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Hong Kong</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
@@ -742,7 +742,7 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>wqc@tclawfirm.com</v>
+        <v/>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Malek</v>
+        <v>=PROPER(IFERROR(LEFT(B13,FIND(" ",B13)-1),B13))</v>
       </c>
       <c r="B13" t="str">
-        <v>Malek Barudi Mjur (Oxford)</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>Taylor Wessing</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
@@ -806,7 +806,7 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>m.barudi@taylorwessing.com</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>David</v>
+        <v>=PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</v>
       </c>
       <c r="B15" t="str">
-        <v>David Goldman</v>
+        <v/>
       </c>
       <c r="C15" t="str">
-        <v>Gornitzky And Co</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
@@ -870,7 +870,7 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>davidg@gornitzky.com</v>
+        <v/>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Giuseppe</v>
+        <v>=PROPER(IFERROR(LEFT(B17,FIND(" ",B17)-1),B17))</v>
       </c>
       <c r="B17" t="str">
-        <v>Giuseppe Abbruzzese</v>
+        <v/>
       </c>
       <c r="C17" t="str">
-        <v>Legance</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
@@ -934,7 +934,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>gabbruzzese@legance.it</v>
+        <v/>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Stefanos</v>
+        <v>=PROPER(IFERROR(LEFT(B18,FIND(" ",B18)-1),B18))</v>
       </c>
       <c r="B18" t="str">
-        <v>Stefanos Charaktiniotis</v>
+        <v/>
       </c>
       <c r="C18" t="str">
-        <v>Zepos And Yannopoulos</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>Greece</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
@@ -966,7 +966,7 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>s.charaktiniotis@zeya.com</v>
+        <v/>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Martin</v>
+        <v>=PROPER(IFERROR(LEFT(B19,FIND(" ",B19)-1),B19))</v>
       </c>
       <c r="B19" t="str">
-        <v>Martin Leboutillier</v>
+        <v/>
       </c>
       <c r="C19" t="str">
-        <v>Collas Crill</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>Bermuda</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
@@ -998,7 +998,7 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>martin.leboutillier@collascrill.com</v>
+        <v/>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Andrea</v>
+        <v>=PROPER(IFERROR(LEFT(B21,FIND(" ",B21)-1),B21))</v>
       </c>
       <c r="B21" t="str">
-        <v>Andrea Calvi</v>
+        <v/>
       </c>
       <c r="C21" t="str">
-        <v>Pedersoli</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E21" t="str">
         <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1062,7 +1062,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>acalvi@pglex.it</v>
+        <v/>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Kevin</v>
+        <v>=PROPER(IFERROR(LEFT(B23,FIND(" ",B23)-1),B23))</v>
       </c>
       <c r="B23" t="str">
-        <v>Kevin Tsen</v>
+        <v/>
       </c>
       <c r="C23" t="str">
-        <v>CFN Law</v>
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>Hong Kong</v>
+        <v/>
       </c>
       <c r="E23" t="str">
         <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>kevin.tsen@cfnlaw.com.hk</v>
+        <v/>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Simone</v>
+        <v>=PROPER(IFERROR(LEFT(B25,FIND(" ",B25)-1),B25))</v>
       </c>
       <c r="B25" t="str">
-        <v>Simone Ambrogi</v>
+        <v/>
       </c>
       <c r="C25" t="str">
-        <v>Legance</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1190,7 +1190,7 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>sambrogi@legance.it</v>
+        <v/>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ya-Chiao</v>
+        <v>=PROPER(IFERROR(LEFT(B26,FIND(" ",B26)-1),B26))</v>
       </c>
       <c r="B26" t="str">
-        <v>Ya-Chiao Chang</v>
+        <v/>
       </c>
       <c r="C26" t="str">
-        <v>Winston And Strawn</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1222,7 +1222,7 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>ychang@winston.com</v>
+        <v/>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Andrew</v>
+        <v>=PROPER(IFERROR(LEFT(B27,FIND(" ",B27)-1),B27))</v>
       </c>
       <c r="B27" t="str">
-        <v>Andrew Feighery</v>
+        <v/>
       </c>
       <c r="C27" t="str">
-        <v>Byrne Wallace</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>Ireland</v>
+        <v/>
       </c>
       <c r="E27" t="str">
         <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1254,7 +1254,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>afeighery@byrnewallace.com</v>
+        <v/>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,16 +1268,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Catherine</v>
+        <v>=PROPER(IFERROR(LEFT(B28,FIND(" ",B28)-1),B28))</v>
       </c>
       <c r="B28" t="str">
-        <v>Catherine Ross</v>
+        <v/>
       </c>
       <c r="C28" t="str">
-        <v>Forbes Hare</v>
+        <v/>
       </c>
       <c r="D28" t="str">
-        <v>Singapore</v>
+        <v/>
       </c>
       <c r="E28" t="str">
         <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1286,7 +1286,7 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>catherine.ross@forbeshare.com</v>
+        <v/>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Hartwig</v>
+        <v>=PROPER(IFERROR(LEFT(B29,FIND(" ",B29)-1),B29))</v>
       </c>
       <c r="B29" t="str">
-        <v>Hartwig Kienast</v>
+        <v/>
       </c>
       <c r="C29" t="str">
-        <v>Wolf Theiss</v>
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>Austria</v>
+        <v/>
       </c>
       <c r="E29" t="str">
         <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1318,7 +1318,7 @@
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>hartwig.kienast@wolftheiss.com</v>
+        <v/>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Henning</v>
+        <v>=PROPER(IFERROR(LEFT(B31,FIND(" ",B31)-1),B31))</v>
       </c>
       <c r="B31" t="str">
-        <v>Henning Von Lillienskjold</v>
+        <v/>
       </c>
       <c r="C31" t="str">
-        <v>DahlLaw</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>Denmark</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1382,7 +1382,7 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>hvl@dahllaw.dk</v>
+        <v/>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Achiron</v>
+        <v>=PROPER(IFERROR(LEFT(B32,FIND(" ",B32)-1),B32))</v>
       </c>
       <c r="B32" t="str">
-        <v>Achiron Jonathan</v>
+        <v/>
       </c>
       <c r="C32" t="str">
-        <v>EBN</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E32" t="str">
         <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1414,7 +1414,7 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>jonathana@ebnlaw.co.il</v>
+        <v/>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mark</v>
+        <v>=PROPER(IFERROR(LEFT(B33,FIND(" ",B33)-1),B33))</v>
       </c>
       <c r="B33" t="str">
-        <v>Mark Davis</v>
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>Mishcon Karas</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>Hong Kong</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1446,7 +1446,7 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>mark.davis@mishcon.com</v>
+        <v/>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Wang</v>
+        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
       </c>
       <c r="B34" t="str">
-        <v>Wang Haiyu (Nicole Wang)</v>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>Longan Law</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E34" t="str">
         <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1478,7 +1478,7 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>wanghaiyu@longanlaw.com</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1524,16 +1524,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Bai</v>
+        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
       </c>
       <c r="B36" t="str">
-        <v>Bai Xianyue</v>
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>Grandall</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E36" t="str">
         <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1542,7 +1542,7 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>baixianyue@grandall.com.cn</v>
+        <v/>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Christopher</v>
+        <v>=PROPER(IFERROR(LEFT(B37,FIND(" ",B37)-1),B37))</v>
       </c>
       <c r="B37" t="str">
-        <v>Christopher Bromilow</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>Forbes Hare</v>
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>British Virgin Islands</v>
+        <v/>
       </c>
       <c r="E37" t="str">
         <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>christopher.bromilow@forbeshare.com</v>
+        <v/>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Jingzhong</v>
+        <v>=PROPER(IFERROR(LEFT(B38,FIND(" ",B38)-1),B38))</v>
       </c>
       <c r="B38" t="str">
-        <v>Jingzhong Zhang</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>TC Law Firm</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E38" t="str">
         <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>undefined zhangjz@tclawfirm.com</v>
+        <v/>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Barry</v>
+        <v>=PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</v>
       </c>
       <c r="B42" t="str">
-        <v>Barry Smith</v>
+        <v/>
       </c>
       <c r="C42" t="str">
-        <v>Forbes Hare</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>Cayman Islands</v>
+        <v/>
       </c>
       <c r="E42" t="str">
         <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1734,7 +1734,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>barry.smith@forbeshare.com</v>
+        <v/>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Abramovich</v>
+        <v>=PROPER(IFERROR(LEFT(B43,FIND(" ",B43)-1),B43))</v>
       </c>
       <c r="B43" t="str">
-        <v>Abramovich Menachem</v>
+        <v/>
       </c>
       <c r="C43" t="str">
-        <v>EBN</v>
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E43" t="str">
         <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1766,7 +1766,7 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>menachema@ebnlaw.co.il</v>
+        <v/>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,16 +1780,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>William</v>
+        <v>=PROPER(IFERROR(LEFT(B44,FIND(" ",B44)-1),B44))</v>
       </c>
       <c r="B44" t="str">
-        <v>William Hare</v>
+        <v/>
       </c>
       <c r="C44" t="str">
-        <v>Forbes Hare</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>British Virgin Islands</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1798,7 +1798,7 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>william.hare@forbeshare.com</v>
+        <v/>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Feng</v>
+        <v>=PROPER(IFERROR(LEFT(B45,FIND(" ",B45)-1),B45))</v>
       </c>
       <c r="B45" t="str">
-        <v>Feng Tao</v>
+        <v/>
       </c>
       <c r="C45" t="str">
-        <v>Longan Law</v>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E45" t="str">
         <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1830,7 +1830,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>fengtao@longanlaw.com</v>
+        <v/>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Adam</v>
+        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
       </c>
       <c r="B47" t="str">
-        <v>Adam Kadesh</v>
+        <v/>
       </c>
       <c r="C47" t="str">
-        <v>Fischer</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E47" t="str">
         <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1894,7 +1894,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>akadesh@fbclawyers.com</v>
+        <v/>
       </c>
       <c r="P47" t="str">
         <v>Cote D&amp;apos;ivoire</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Fang</v>
+        <v>=PROPER(IFERROR(LEFT(B49,FIND(" ",B49)-1),B49))</v>
       </c>
       <c r="B49" t="str">
-        <v>Fang Ling</v>
+        <v/>
       </c>
       <c r="C49" t="str">
-        <v>Longan Law</v>
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E49" t="str">
         <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1958,7 +1958,7 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>fangling@longanlaw.com</v>
+        <v/>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Nitzan</v>
+        <v>=PROPER(IFERROR(LEFT(B50,FIND(" ",B50)-1),B50))</v>
       </c>
       <c r="B50" t="str">
-        <v>Nitzan Aberbach</v>
+        <v/>
       </c>
       <c r="C50" t="str">
-        <v>EBN</v>
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E50" t="str">
         <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1990,7 +1990,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>nitzana@ebnlaw.co.il</v>
+        <v/>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Ido</v>
+        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
       </c>
       <c r="B52" t="str">
-        <v>Ido Malin</v>
+        <v/>
       </c>
       <c r="C52" t="str">
-        <v>Gornitzky And Co</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E52" t="str">
         <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
@@ -2054,7 +2054,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>idom@gornitzky.com</v>
+        <v/>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,25 +436,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Neela</v>
+        <v>John</v>
       </c>
       <c r="B2" t="str">
-        <v>Neela Badami</v>
+        <v>John White</v>
       </c>
       <c r="C2" t="str">
-        <v>Samvad Partners</v>
+        <v>Beauchamps</v>
       </c>
       <c r="D2" t="str">
-        <v>India</v>
+        <v>Ireland</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>neela@samvadpartners.com</v>
+        <v>j.white@beauchamps.ie</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -468,25 +468,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Sandra</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Sandra Minott-Phillips K C</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Myers Fletcher And Gordon</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Jamaica</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>sphillips@mfg.com.jm</v>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,25 +500,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Renato</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>Renato Bocca</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>BonelliErede</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>renato.bocca@belex.com</v>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -532,25 +532,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Calamus</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Calamus Huang</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Harneys</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>calamus.huang@harneys.cn</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,25 +564,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Simon</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Simon Hall</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Carey Olsen</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Dominican Republic</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>simon.hall@careyolsen.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,25 +596,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Judit</v>
+        <v>Lital</v>
       </c>
       <c r="B7" t="str">
-        <v>Judit GuláS</v>
+        <v>Lital Barsheshet-Peri</v>
       </c>
       <c r="C7" t="str">
-        <v>Szecskay</v>
+        <v>Aron Tadmor Levy</v>
       </c>
       <c r="D7" t="str">
-        <v>Hungary</v>
+        <v>Israel</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>judit.gulas@szecskay.com</v>
+        <v>lital.b@arnontl.com</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -628,25 +628,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>John</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>John D Crothers</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>Gide Loyrette Nouel</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>France</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>crothers@gide.com</v>
       </c>
       <c r="P8" t="str">
         <v>Argentina</v>
@@ -660,25 +660,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Aaron</v>
+        <v>Michael</v>
       </c>
       <c r="B9" t="str">
-        <v>Aaron Boyle</v>
+        <v>Michael Byrne</v>
       </c>
       <c r="C9" t="str">
-        <v>Arthur Cox</v>
+        <v>Matheson</v>
       </c>
       <c r="D9" t="str">
         <v>Ireland</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>aaron.boyle@arthurcox.com</v>
+        <v>michael.byrne@matheson.com</v>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -692,25 +692,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>David</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>David Goldman</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Gornitzky And Co</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>davidg@gornitzky.com</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,25 +724,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Matthew</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>Matthew Grigg</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Carey Olsen</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Bermuda</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>matthew.grigg@careyolsen.com</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -756,25 +756,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Thomas</v>
+        <v>Ekta</v>
       </c>
       <c r="B12" t="str">
-        <v>Thomas KrüMmel Ll M</v>
+        <v>Ekta *****</v>
       </c>
       <c r="C12" t="str">
-        <v>Meyer Köring</v>
+        <v>Samvad Partners</v>
       </c>
       <c r="D12" t="str">
-        <v>Denmark</v>
+        <v>India</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>kruemmel@meyer-koering.de</v>
+        <v>ekta@samvadpartners.com</v>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -788,25 +788,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>James</v>
+        <v>Rula</v>
       </c>
       <c r="B13" t="str">
-        <v>James Broad</v>
+        <v>Rula Dajani Abuljebain</v>
       </c>
       <c r="C13" t="str">
-        <v>Mourant</v>
+        <v>HFW</v>
       </c>
       <c r="D13" t="str">
-        <v>Hong Kong</v>
+        <v>the UAE</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>james.broad@mourant.com</v>
+        <v>rula.dajaniabuljebain@hfw.com</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -820,25 +820,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Alon</v>
+        <v>Fang</v>
       </c>
       <c r="B14" t="str">
-        <v>Alon Anava</v>
+        <v>Fang Ling</v>
       </c>
       <c r="C14" t="str">
-        <v>Barnea And Co</v>
+        <v>Longan Law</v>
       </c>
       <c r="D14" t="str">
-        <v>Israel</v>
+        <v>China</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>aanava@barlaw.co.il</v>
+        <v>fangling@longanlaw.com</v>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -852,25 +852,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Nivedita</v>
+        <v>Victor</v>
       </c>
       <c r="B15" t="str">
-        <v>Nivedita *****</v>
+        <v>Victor Richards</v>
       </c>
       <c r="C15" t="str">
-        <v>Samvad Partners</v>
+        <v>Conyers</v>
       </c>
       <c r="D15" t="str">
-        <v>India</v>
+        <v>Bermuda</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>nivedita@samvadpartners.com</v>
+        <v>victor.richards@conyers.com</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -884,25 +884,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Tanmay</v>
+        <v>Izabella</v>
       </c>
       <c r="B16" t="str">
-        <v>Tanmay Joshi</v>
+        <v>Izabella Szadkowska</v>
       </c>
       <c r="C16" t="str">
-        <v>Remfry And Sagar</v>
+        <v>Al Tamimi</v>
       </c>
       <c r="D16" t="str">
-        <v>India</v>
+        <v>the UAE</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>tanmay.joshi@remfry.com</v>
+        <v>i.szadkowska@tamimi.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,25 +916,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Gauri</v>
+        <v>Antti</v>
       </c>
       <c r="B17" t="str">
-        <v>Gauri</v>
+        <v>Antti Nyberg</v>
       </c>
       <c r="C17" t="str">
-        <v>Samvad Partners</v>
+        <v>Hannes Snellman</v>
       </c>
       <c r="D17" t="str">
-        <v>India</v>
+        <v>Finland</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>gauri@samvadpartners.com</v>
+        <v>antti.nyberg@hannessnellman.com</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,25 +948,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Ian</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Ian De Witt</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Tanner DeWitt</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>iandewitt@tannerdewitt.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,25 +980,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>Ewelina</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>Ewelina</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>Schoenherr</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>Poland</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>ew.adamczyk@schoenherr.eu</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Ekta</v>
+        <v>Colm</v>
       </c>
       <c r="B20" t="str">
-        <v>Ekta</v>
+        <v>Colm Dawson</v>
       </c>
       <c r="C20" t="str">
-        <v>Samvad Partners</v>
+        <v>Walkers</v>
       </c>
       <c r="D20" t="str">
-        <v>India</v>
+        <v>Cayman Islands</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>ekta@samvadpartners.com</v>
+        <v>colm.dawson@walkersglobal.com</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Ekta</v>
+        <v>Kiran</v>
       </c>
       <c r="B21" t="str">
-        <v>Ekta Bahl</v>
+        <v>Kiran Bhogal</v>
       </c>
       <c r="C21" t="str">
-        <v>Samvad Partners</v>
+        <v>Hill Dickinson</v>
       </c>
       <c r="D21" t="str">
-        <v>India</v>
+        <v>England</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>e: ekta@samvadpartners.com</v>
+        <v>kiran.bhogal@hilldickinson.com</v>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1076,25 +1076,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Raffaella</v>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>Raffaella Betti Berutto</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>Gianni And Origoni</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>rbetti@gop.it</v>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1108,25 +1108,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v/>
+        <v>Onika</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Onika E Stewart</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>Lex Caribbean</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Caribe</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>onika.stewart@bb.lexcaribbean.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1140,25 +1140,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Katalin</v>
+        <v>Petr</v>
       </c>
       <c r="B24" t="str">
-        <v>Katalin GróSz</v>
+        <v>Petr Hrnčíř</v>
       </c>
       <c r="C24" t="str">
-        <v>Szecskay</v>
+        <v>Kinstellar</v>
       </c>
       <c r="D24" t="str">
-        <v>Hungary</v>
+        <v>Czech Republic</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>katalin.grosz@szecskay.com</v>
+        <v>petr.hrncir@kinstellar.com</v>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1172,25 +1172,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>Antony</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>Antony Yung</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Howse Williams</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>antony.yung@howsewilliams.com</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ian</v>
+        <v>Olga</v>
       </c>
       <c r="B26" t="str">
-        <v>Ian De Witt</v>
+        <v>Olga Barreto</v>
       </c>
       <c r="C26" t="str">
-        <v>Tanner DeWitt</v>
+        <v>Consortium Legal</v>
       </c>
       <c r="D26" t="str">
-        <v>Hong Kong</v>
+        <v>Nicaragua</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>iandewitt@tannerdewitt.com</v>
+        <v>obarreto@consortiumlegal.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,25 +1236,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MáIre</v>
+        <v>Nicolas</v>
       </c>
       <c r="B27" t="str">
-        <v>MáIre Cunningham</v>
+        <v>Nicolas Bonnefoy</v>
       </c>
       <c r="C27" t="str">
-        <v>Beauchamps</v>
+        <v>Asafo And Co</v>
       </c>
       <c r="D27" t="str">
-        <v>Ireland</v>
+        <v>England</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>m.cunningham@beauchamps.ie</v>
+        <v>nbonnefoy@asafoandco-ln.com</v>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,25 +1268,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>Edward</v>
       </c>
       <c r="B28" t="str">
-        <v/>
+        <v>Edward Bong</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Fangda Partners</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>edward.bong@fangdalaw.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,25 +1300,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>David</v>
+        <v>Tanmay</v>
       </c>
       <c r="B29" t="str">
-        <v>David Black</v>
+        <v>Tanmay Joshi</v>
       </c>
       <c r="C29" t="str">
-        <v>Arthur Cox</v>
+        <v>Remfry And Sagar</v>
       </c>
       <c r="D29" t="str">
-        <v>England</v>
+        <v>India</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>david.black@arthurcox.com</v>
+        <v>tanmay.joshi@remfry.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1332,25 +1332,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>Einari</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>Einari Karhu</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>Borenius</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>Finland</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>einari.karhu@borenius.com</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>James</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>James Brenan</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>Spencer West</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E31" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>james.brenan@spencer-west.com</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,25 +1396,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>Gaurav</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Gaurav Mistry</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>DSK Legal</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>India</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>gaurav.mistry@dsklegal.com</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Robin</v>
+        <v>Gaetano</v>
       </c>
       <c r="B33" t="str">
-        <v>Robin Darton</v>
+        <v>Gaetano Carrello</v>
       </c>
       <c r="C33" t="str">
-        <v>Tanner DeWitt</v>
+        <v>Pedersoli</v>
       </c>
       <c r="D33" t="str">
-        <v>Hong Kong</v>
+        <v>Italy</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>robindarton@tannerdewitt.com</v>
+        <v>gcarrello@pglex.it</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,25 +1460,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v/>
+        <v>Georgi</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Georgi Tzvetkov</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>DGKV</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Bulgaria</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>georgi.tzvetkov@dgkv.com</v>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1492,25 +1492,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v>Duncan</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>Duncan Athol</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Simmons And Simmons</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>duncan.athol@simmons-simmons.com</v>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1524,25 +1524,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Neela</v>
+        <v>Cera</v>
       </c>
       <c r="B36" t="str">
-        <v>Neela</v>
+        <v>Cera Claudio</v>
       </c>
       <c r="C36" t="str">
-        <v>Samvad Partners</v>
+        <v>Pavia And Ansaldo</v>
       </c>
       <c r="D36" t="str">
-        <v>India</v>
+        <v>Italy</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>neela@samvadpartners.com</v>
+        <v>claudio.cera@pavia-ansaldo.it</v>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,25 +1556,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Daniel</v>
+        <v>Jukka</v>
       </c>
       <c r="B37" t="str">
-        <v>Daniel Birtwistle</v>
+        <v>Jukka LåNg</v>
       </c>
       <c r="C37" t="str">
-        <v>Mourant</v>
+        <v>Dittmar And Indrenius</v>
       </c>
       <c r="D37" t="str">
-        <v>Bermuda</v>
+        <v>Finland</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>daniel.birtwistle@mourant.com</v>
+        <v>jukka.lang@dittmar.fi</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,25 +1588,25 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v/>
+        <v>Paolo</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>Paolo Bernasconi</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>Latham And Watkins</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>paolo.bernasconi@lw.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1620,25 +1620,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>Henrik</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>Henrik MøGelmose</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Kromann Reumert</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>Denmark</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>hm@kromannreumert.com</v>
       </c>
       <c r="P39" t="str">
         <v>Central African Republic</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>Achiron</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>Achiron Jonathan</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>EBN</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>jonathana@ebnlaw.co.il</v>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Edward</v>
+        <v>John</v>
       </c>
       <c r="B41" t="str">
-        <v>Edward Bong</v>
+        <v>John Stephens</v>
       </c>
       <c r="C41" t="str">
-        <v>Fangda Partners</v>
+        <v>Keystone Law</v>
       </c>
       <c r="D41" t="str">
-        <v>Hong Kong</v>
+        <v>England</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>edward.bong@fangdalaw.com</v>
+        <v>john.stephens@keystonelaw.co.uk</v>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1716,25 +1716,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Adeline</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Adeline Pang</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>White and Case</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>Australia</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>adeline.pang@whitecase.com</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Darren</v>
+        <v>Carolina</v>
       </c>
       <c r="B43" t="str">
-        <v>Darren Bacon</v>
+        <v>Carolina Rozo</v>
       </c>
       <c r="C43" t="str">
-        <v>Mourant</v>
+        <v>Pulegal</v>
       </c>
       <c r="D43" t="str">
-        <v>Bermuda</v>
+        <v>Colombia</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>darren.bacon@mourant.com</v>
+        <v>carolina.rozo@ppulegal.com</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,25 +1780,25 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>Radosveta</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>Radosveta Kojuharova</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>Wolf Theiss</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>Bulgaria</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>radosveta.kojuharova@wolftheiss.com</v>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,25 +1812,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>Aleksander</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>Aleksander Lind</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>Poulschmith</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>Denmark</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>alli@poulschmith.dk</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>Nathaniel</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>Nathaniel Agou</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>Pearl Cohen</v>
       </c>
       <c r="D46" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>nagou@pearlcohen.com</v>
       </c>
       <c r="P46" t="str">
         <v>Costa Rica</v>
@@ -1876,25 +1876,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Alfred</v>
+        <v>Luis</v>
       </c>
       <c r="B47" t="str">
-        <v>Alfred Hennemann</v>
+        <v>Luis Ernesto Guandique MejíA</v>
       </c>
       <c r="C47" t="str">
-        <v>Meyer Köring</v>
+        <v>Latam Lex</v>
       </c>
       <c r="D47" t="str">
-        <v>Denmark</v>
+        <v>El Salvador</v>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>hennemann@meyer-koering.de</v>
+        <v>leguandique@latamlex.com</v>
       </c>
       <c r="P47" t="str">
         <v>Cote D&amp;apos;ivoire</v>
@@ -1908,25 +1908,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Nivedita</v>
+        <v>Catherine</v>
       </c>
       <c r="B48" t="str">
-        <v>Nivedita Nivargi</v>
+        <v>Catherine Zheng</v>
       </c>
       <c r="C48" t="str">
-        <v>Samvad Partners</v>
+        <v>Deacons</v>
       </c>
       <c r="D48" t="str">
-        <v>India</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E48" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>nivedita@samvadpartners.com</v>
+        <v>catherine.zheng@deacons.com</v>
       </c>
       <c r="P48" t="str">
         <v>Croatia</v>
@@ -1940,25 +1940,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nathaniel</v>
+        <v>Robert</v>
       </c>
       <c r="B49" t="str">
-        <v>Nathaniel Agou</v>
+        <v>Robert Neruda</v>
       </c>
       <c r="C49" t="str">
-        <v>Pearl Cohen</v>
+        <v>Havel Partners</v>
       </c>
       <c r="D49" t="str">
-        <v>Israel</v>
+        <v>Czech Republic</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>nagou@pearlcohen.com</v>
+        <v>robert.neruda@havelpartners.cz</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,25 +1972,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>New</v>
+        <v>Peter</v>
       </c>
       <c r="B50" t="str">
-        <v>New Delhi</v>
+        <v>Peter Crowther</v>
       </c>
       <c r="C50" t="str">
-        <v>Samvad Partners</v>
+        <v>Winston And Strawn</v>
       </c>
       <c r="D50" t="str">
-        <v>India</v>
+        <v>England</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>recognition</v>
+        <v>pcrowther@winston.com</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,25 +2004,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Gauri</v>
+        <v>Juha</v>
       </c>
       <c r="B51" t="str">
-        <v>Gauri Khanna</v>
+        <v>Juha Pekka Katainen</v>
       </c>
       <c r="C51" t="str">
-        <v>Samvad Partners</v>
+        <v>Krogerus</v>
       </c>
       <c r="D51" t="str">
-        <v>India</v>
+        <v>Finland</v>
       </c>
       <c r="E51" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>gauri@samvadpartners.com</v>
+        <v>jp.katainen@krogerus.com</v>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -2036,25 +2036,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>Nadja</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>Nadja Bussemer</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>GÖRG</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E52" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>nbussemer@goerg.de</v>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,25 +436,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>John</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>John White</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>Beauchamps</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>Ireland</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>j.white@beauchamps.ie</v>
+        <v/>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -468,25 +468,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sandra</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>Sandra Minott-Phillips K C</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>Myers Fletcher And Gordon</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Jamaica</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>sphillips@mfg.com.jm</v>
+        <v/>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,25 +500,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Renato</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>Renato Bocca</v>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>BonelliErede</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>renato.bocca@belex.com</v>
+        <v/>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -532,25 +532,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Calamus</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>Calamus Huang</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>Harneys</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>calamus.huang@harneys.cn</v>
+        <v/>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,25 +564,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Simon</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>Simon Hall</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>Carey Olsen</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>Dominican Republic</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>simon.hall@careyolsen.com</v>
+        <v/>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,25 +596,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Lital</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>Lital Barsheshet-Peri</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>Aron Tadmor Levy</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>lital.b@arnontl.com</v>
+        <v/>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -628,25 +628,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>John</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>John D Crothers</v>
+        <v/>
       </c>
       <c r="C8" t="str">
-        <v>Gide Loyrette Nouel</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>France</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>crothers@gide.com</v>
+        <v/>
       </c>
       <c r="P8" t="str">
         <v>Argentina</v>
@@ -660,25 +660,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Michael</v>
+        <v/>
       </c>
       <c r="B9" t="str">
-        <v>Michael Byrne</v>
+        <v/>
       </c>
       <c r="C9" t="str">
-        <v>Matheson</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>Ireland</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>michael.byrne@matheson.com</v>
+        <v/>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -692,25 +692,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>David</v>
+        <v/>
       </c>
       <c r="B10" t="str">
-        <v>David Goldman</v>
+        <v/>
       </c>
       <c r="C10" t="str">
-        <v>Gornitzky And Co</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>davidg@gornitzky.com</v>
+        <v/>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,25 +724,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Matthew</v>
+        <v/>
       </c>
       <c r="B11" t="str">
-        <v>Matthew Grigg</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v>Carey Olsen</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Bermuda</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>matthew.grigg@careyolsen.com</v>
+        <v/>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -756,25 +756,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ekta</v>
+        <v/>
       </c>
       <c r="B12" t="str">
-        <v>Ekta *****</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>Samvad Partners</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>India</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>ekta@samvadpartners.com</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -788,25 +788,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rula</v>
+        <v/>
       </c>
       <c r="B13" t="str">
-        <v>Rula Dajani Abuljebain</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>HFW</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>the UAE</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>rula.dajaniabuljebain@hfw.com</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -820,25 +820,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fang</v>
+        <v/>
       </c>
       <c r="B14" t="str">
-        <v>Fang Ling</v>
+        <v/>
       </c>
       <c r="C14" t="str">
-        <v>Longan Law</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>fangling@longanlaw.com</v>
+        <v/>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -852,25 +852,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Victor</v>
+        <v/>
       </c>
       <c r="B15" t="str">
-        <v>Victor Richards</v>
+        <v/>
       </c>
       <c r="C15" t="str">
-        <v>Conyers</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>Bermuda</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>victor.richards@conyers.com</v>
+        <v/>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -884,25 +884,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Izabella</v>
+        <v/>
       </c>
       <c r="B16" t="str">
-        <v>Izabella Szadkowska</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v>Al Tamimi</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>the UAE</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>i.szadkowska@tamimi.com</v>
+        <v/>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,25 +916,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Antti</v>
+        <v/>
       </c>
       <c r="B17" t="str">
-        <v>Antti Nyberg</v>
+        <v/>
       </c>
       <c r="C17" t="str">
-        <v>Hannes Snellman</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>Finland</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>antti.nyberg@hannessnellman.com</v>
+        <v/>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,25 +948,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ian</v>
+        <v>Aisanat</v>
       </c>
       <c r="B18" t="str">
-        <v>Ian De Witt</v>
+        <v>Aisanat Safarbek Kyzy</v>
       </c>
       <c r="C18" t="str">
-        <v>Tanner DeWitt</v>
+        <v>GRATA International</v>
       </c>
       <c r="D18" t="str">
-        <v>Hong Kong</v>
+        <v>Not Found</v>
       </c>
       <c r="E18" t="str">
-        <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>iandewitt@tannerdewitt.com</v>
+        <v>asafarbek@gratanet.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,25 +980,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ewelina</v>
+        <v/>
       </c>
       <c r="B19" t="str">
-        <v>Ewelina</v>
+        <v/>
       </c>
       <c r="C19" t="str">
-        <v>Schoenherr</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>Poland</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>ew.adamczyk@schoenherr.eu</v>
+        <v/>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Colm</v>
+        <v/>
       </c>
       <c r="B20" t="str">
-        <v>Colm Dawson</v>
+        <v/>
       </c>
       <c r="C20" t="str">
-        <v>Walkers</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>Cayman Islands</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>colm.dawson@walkersglobal.com</v>
+        <v/>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kiran</v>
+        <v/>
       </c>
       <c r="B21" t="str">
-        <v>Kiran Bhogal</v>
+        <v/>
       </c>
       <c r="C21" t="str">
-        <v>Hill Dickinson</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>kiran.bhogal@hilldickinson.com</v>
+        <v/>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1076,25 +1076,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Raffaella</v>
+        <v/>
       </c>
       <c r="B22" t="str">
-        <v>Raffaella Betti Berutto</v>
+        <v/>
       </c>
       <c r="C22" t="str">
-        <v>Gianni And Origoni</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>rbetti@gop.it</v>
+        <v/>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1108,25 +1108,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Onika</v>
+        <v/>
       </c>
       <c r="B23" t="str">
-        <v>Onika E Stewart</v>
+        <v/>
       </c>
       <c r="C23" t="str">
-        <v>Lex Caribbean</v>
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>Caribe</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>onika.stewart@bb.lexcaribbean.com</v>
+        <v/>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1140,25 +1140,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Petr</v>
+        <v/>
       </c>
       <c r="B24" t="str">
-        <v>Petr Hrnčíř</v>
+        <v/>
       </c>
       <c r="C24" t="str">
-        <v>Kinstellar</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>Czech Republic</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>petr.hrncir@kinstellar.com</v>
+        <v/>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1172,25 +1172,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Antony</v>
+        <v/>
       </c>
       <c r="B25" t="str">
-        <v>Antony Yung</v>
+        <v/>
       </c>
       <c r="C25" t="str">
-        <v>Howse Williams</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>Hong Kong</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>antony.yung@howsewilliams.com</v>
+        <v/>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Olga</v>
+        <v/>
       </c>
       <c r="B26" t="str">
-        <v>Olga Barreto</v>
+        <v/>
       </c>
       <c r="C26" t="str">
-        <v>Consortium Legal</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>Nicaragua</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>obarreto@consortiumlegal.com</v>
+        <v/>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,25 +1236,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Nicolas</v>
+        <v/>
       </c>
       <c r="B27" t="str">
-        <v>Nicolas Bonnefoy</v>
+        <v/>
       </c>
       <c r="C27" t="str">
-        <v>Asafo And Co</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>nbonnefoy@asafoandco-ln.com</v>
+        <v/>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,25 +1268,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Edward</v>
+        <v>Margherita</v>
       </c>
       <c r="B28" t="str">
-        <v>Edward Bong</v>
+        <v>Margherita Barié</v>
       </c>
       <c r="C28" t="str">
-        <v>Fangda Partners</v>
+        <v>Carnelutti Law Firm</v>
       </c>
       <c r="D28" t="str">
-        <v>Hong Kong</v>
+        <v>Italy</v>
       </c>
       <c r="E28" t="str">
-        <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>edward.bong@fangdalaw.com</v>
+        <v>mbarie@carnelutti.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,25 +1300,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tanmay</v>
+        <v/>
       </c>
       <c r="B29" t="str">
-        <v>Tanmay Joshi</v>
+        <v/>
       </c>
       <c r="C29" t="str">
-        <v>Remfry And Sagar</v>
+        <v/>
       </c>
       <c r="D29" t="str">
-        <v>India</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>tanmay.joshi@remfry.com</v>
+        <v/>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1332,25 +1332,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Einari</v>
+        <v>Paolo</v>
       </c>
       <c r="B30" t="str">
-        <v>Einari Karhu</v>
+        <v>Paolo Baruffi</v>
       </c>
       <c r="C30" t="str">
-        <v>Borenius</v>
+        <v>Carnelutti Law Firm</v>
       </c>
       <c r="D30" t="str">
-        <v>Finland</v>
+        <v>Italy</v>
       </c>
       <c r="E30" t="str">
-        <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>einari.karhu@borenius.com</v>
+        <v>pbaruffi@carnelutti.com</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>James</v>
+        <v/>
       </c>
       <c r="B31" t="str">
-        <v>James Brenan</v>
+        <v/>
       </c>
       <c r="C31" t="str">
-        <v>Spencer West</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>james.brenan@spencer-west.com</v>
+        <v/>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,25 +1396,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gaurav</v>
+        <v/>
       </c>
       <c r="B32" t="str">
-        <v>Gaurav Mistry</v>
+        <v/>
       </c>
       <c r="C32" t="str">
-        <v>DSK Legal</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>India</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>gaurav.mistry@dsklegal.com</v>
+        <v/>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Gaetano</v>
+        <v/>
       </c>
       <c r="B33" t="str">
-        <v>Gaetano Carrello</v>
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>Pedersoli</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>gcarrello@pglex.it</v>
+        <v/>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,25 +1460,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Georgi</v>
+        <v/>
       </c>
       <c r="B34" t="str">
-        <v>Georgi Tzvetkov</v>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>DGKV</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>Bulgaria</v>
+        <v/>
       </c>
       <c r="E34" t="str">
-        <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>georgi.tzvetkov@dgkv.com</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1492,25 +1492,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Duncan</v>
+        <v/>
       </c>
       <c r="B35" t="str">
-        <v>Duncan Athol</v>
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>Simmons And Simmons</v>
+        <v/>
       </c>
       <c r="D35" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E35" t="str">
-        <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>duncan.athol@simmons-simmons.com</v>
+        <v/>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1524,25 +1524,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Cera</v>
+        <v/>
       </c>
       <c r="B36" t="str">
-        <v>Cera Claudio</v>
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>Pavia And Ansaldo</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>claudio.cera@pavia-ansaldo.it</v>
+        <v/>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,25 +1556,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Jukka</v>
+        <v/>
       </c>
       <c r="B37" t="str">
-        <v>Jukka LåNg</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>Dittmar And Indrenius</v>
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>Finland</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>jukka.lang@dittmar.fi</v>
+        <v/>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,25 +1588,25 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Paolo</v>
+        <v/>
       </c>
       <c r="B38" t="str">
-        <v>Paolo Bernasconi</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>Latham And Watkins</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>Italy</v>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>paolo.bernasconi@lw.com</v>
+        <v/>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1620,25 +1620,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Henrik</v>
+        <v/>
       </c>
       <c r="B39" t="str">
-        <v>Henrik MøGelmose</v>
+        <v/>
       </c>
       <c r="C39" t="str">
-        <v>Kromann Reumert</v>
+        <v/>
       </c>
       <c r="D39" t="str">
-        <v>Denmark</v>
+        <v/>
       </c>
       <c r="E39" t="str">
-        <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v>hm@kromannreumert.com</v>
+        <v/>
       </c>
       <c r="P39" t="str">
         <v>Central African Republic</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Achiron</v>
+        <v/>
       </c>
       <c r="B40" t="str">
-        <v>Achiron Jonathan</v>
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>EBN</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>jonathana@ebnlaw.co.il</v>
+        <v/>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>John</v>
+        <v/>
       </c>
       <c r="B41" t="str">
-        <v>John Stephens</v>
+        <v/>
       </c>
       <c r="C41" t="str">
-        <v>Keystone Law</v>
+        <v/>
       </c>
       <c r="D41" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E41" t="str">
-        <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>john.stephens@keystonelaw.co.uk</v>
+        <v/>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1716,25 +1716,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Adeline</v>
+        <v/>
       </c>
       <c r="B42" t="str">
-        <v>Adeline Pang</v>
+        <v/>
       </c>
       <c r="C42" t="str">
-        <v>White and Case</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>Australia</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>adeline.pang@whitecase.com</v>
+        <v/>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Carolina</v>
+        <v/>
       </c>
       <c r="B43" t="str">
-        <v>Carolina Rozo</v>
+        <v/>
       </c>
       <c r="C43" t="str">
-        <v>Pulegal</v>
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>Colombia</v>
+        <v/>
       </c>
       <c r="E43" t="str">
-        <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>carolina.rozo@ppulegal.com</v>
+        <v/>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,25 +1780,25 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Radosveta</v>
+        <v/>
       </c>
       <c r="B44" t="str">
-        <v>Radosveta Kojuharova</v>
+        <v/>
       </c>
       <c r="C44" t="str">
-        <v>Wolf Theiss</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>Bulgaria</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>radosveta.kojuharova@wolftheiss.com</v>
+        <v/>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,25 +1812,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Aleksander</v>
+        <v/>
       </c>
       <c r="B45" t="str">
-        <v>Aleksander Lind</v>
+        <v/>
       </c>
       <c r="C45" t="str">
-        <v>Poulschmith</v>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>Denmark</v>
+        <v/>
       </c>
       <c r="E45" t="str">
-        <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>alli@poulschmith.dk</v>
+        <v/>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nathaniel</v>
+        <v/>
       </c>
       <c r="B46" t="str">
-        <v>Nathaniel Agou</v>
+        <v/>
       </c>
       <c r="C46" t="str">
-        <v>Pearl Cohen</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>Israel</v>
+        <v/>
       </c>
       <c r="E46" t="str">
-        <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>nagou@pearlcohen.com</v>
+        <v/>
       </c>
       <c r="P46" t="str">
         <v>Costa Rica</v>
@@ -1876,25 +1876,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Luis</v>
+        <v/>
       </c>
       <c r="B47" t="str">
-        <v>Luis Ernesto Guandique MejíA</v>
+        <v/>
       </c>
       <c r="C47" t="str">
-        <v>Latam Lex</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>El Salvador</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>leguandique@latamlex.com</v>
+        <v/>
       </c>
       <c r="P47" t="str">
         <v>Cote D&amp;apos;ivoire</v>
@@ -1908,25 +1908,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Catherine</v>
+        <v/>
       </c>
       <c r="B48" t="str">
-        <v>Catherine Zheng</v>
+        <v/>
       </c>
       <c r="C48" t="str">
-        <v>Deacons</v>
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>Hong Kong</v>
+        <v/>
       </c>
       <c r="E48" t="str">
-        <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>catherine.zheng@deacons.com</v>
+        <v/>
       </c>
       <c r="P48" t="str">
         <v>Croatia</v>
@@ -1940,25 +1940,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Robert</v>
+        <v/>
       </c>
       <c r="B49" t="str">
-        <v>Robert Neruda</v>
+        <v/>
       </c>
       <c r="C49" t="str">
-        <v>Havel Partners</v>
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>Czech Republic</v>
+        <v/>
       </c>
       <c r="E49" t="str">
-        <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>robert.neruda@havelpartners.cz</v>
+        <v/>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,25 +1972,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Peter</v>
+        <v/>
       </c>
       <c r="B50" t="str">
-        <v>Peter Crowther</v>
+        <v/>
       </c>
       <c r="C50" t="str">
-        <v>Winston And Strawn</v>
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>pcrowther@winston.com</v>
+        <v/>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,25 +2004,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Juha</v>
+        <v/>
       </c>
       <c r="B51" t="str">
-        <v>Juha Pekka Katainen</v>
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>Krogerus</v>
+        <v/>
       </c>
       <c r="D51" t="str">
-        <v>Finland</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>jp.katainen@krogerus.com</v>
+        <v/>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -2036,25 +2036,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Nadja</v>
+        <v/>
       </c>
       <c r="B52" t="str">
-        <v>Nadja Bussemer</v>
+        <v/>
       </c>
       <c r="C52" t="str">
-        <v>GÖRG</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
+        <v/>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>nbussemer@goerg.de</v>
+        <v/>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,16 +436,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>Mark</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Mark Dillon</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Ireland</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -454,7 +454,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>mark.dillon@dechert.com</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Jay</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Jay Jurata</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Not Found</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -582,7 +582,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>jay.jurata@dechert.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>Olaf</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>Olaf Fasshauer</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -774,7 +774,7 @@
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>olaf.fasshauer@dechert.com</v>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Arne</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>Arne Bolch</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>Luxembourg</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -902,7 +902,7 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>arne.bolch@dechert.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Eric</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>G Eric Brunstad Jr</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>Not Found</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -934,7 +934,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>eric.brunstad@dechert.com</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v/>
+        <v>Amanjit</v>
       </c>
       <c r="B20" t="str">
-        <v/>
+        <v>Amanjit K Fagura</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>the UAE</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>amanjit.fagura@dechert.com</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v/>
+        <v>Dean</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Dean Collins</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>Singapore</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>dean.collins@dechert.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>Eric</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>Eric Deltour</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>Belgium</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -1382,7 +1382,7 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>eric.deltour@dechert.com</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>Daniel</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>Daniel Margulies</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>daniel.margulies@dechert.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>Karen</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>Karen L Anderberg</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1670,7 +1670,7 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>karen.anderberg@dechert.com</v>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>Stephen</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>Stephen D Zide</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>Not Found</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1830,7 +1830,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>stephen.zide@dechert.com</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>Olivia</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>Olivia Bernardeau-Paupe</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>France</v>
       </c>
       <c r="E50" t="str">
         <v/>
@@ -1990,7 +1990,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>olivia.bernardeaupaupe@dechert.com</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>Amanda</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v>Amanda K Antons Ph D</v>
       </c>
       <c r="C51" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>Dominican Republic</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -2022,7 +2022,7 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>amanda.antons@dechert.com</v>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -1428,16 +1428,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>Bingna</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>Bingna Guo</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -1446,7 +1446,7 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>bingna.guo@morganlewis.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -532,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Suzanne</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Suzanne Brooker</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Spencer West</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -550,7 +550,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>suzanne.brooker@spencer-west.com</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v/>
+        <v>Suzanne</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>Suzanne Brooker</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>Spencer West</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>suzanne.brooker@spencer-west.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,25 +436,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mark</v>
+        <v>Juha</v>
       </c>
       <c r="B2" t="str">
-        <v>Mark Dillon</v>
+        <v>Juha Koponen</v>
       </c>
       <c r="C2" t="str">
-        <v>Dechert LLP</v>
+        <v>Borenius</v>
       </c>
       <c r="D2" t="str">
-        <v>Ireland</v>
+        <v>Finland</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>mark.dillon@dechert.com</v>
+        <v>juha.koponen@borenius.com</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -468,25 +468,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Morvarid</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Morvarid Dorkhan Nilsson</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Magnusson Law</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Sweden</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>morvarid.dorkhan@magnussonlaw.com</v>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,25 +500,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Filippo</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>Filippo Caso</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Pedersoli</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>fcaso@pglex.it</v>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -544,7 +544,7 @@
         <v>England</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -564,25 +564,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Jay</v>
+        <v>Katja</v>
       </c>
       <c r="B6" t="str">
-        <v>Jay Jurata</v>
+        <v>Katja Peratalo</v>
       </c>
       <c r="C6" t="str">
-        <v>Dechert LLP</v>
+        <v>Hannes Snellman</v>
       </c>
       <c r="D6" t="str">
-        <v>Not Found</v>
+        <v>Finland</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>jay.jurata@dechert.com</v>
+        <v>katja.peratalo@hannessnellman.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,25 +596,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Amanda</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>Amanda Montague</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Myers Fletcher And Gordon</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>Jamaica</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>amanda.montague@mfg.com.jm</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B8,FIND(" ",B8)-1),B8))</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -640,7 +640,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -660,25 +660,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>Alex</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>Alex Hall Taylor</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>Carey Olsen</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>Dominican Republic</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>alex.halltaylor@careyolsen.com</v>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -692,25 +692,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>Paul</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Paul Massey</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Spruson And Ferguson</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Australia</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>paul.massey@spruson.com</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,25 +724,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Alvaro</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>Alvaro Cala</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Brigrard Urrutia</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>acala@bu.com.co</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -756,25 +756,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Olaf</v>
+        <v>=PROPER(IFERROR(LEFT(B12,FIND(" ",B12)-1),B12))</v>
       </c>
       <c r="B12" t="str">
-        <v>Olaf Fasshauer</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>Dechert LLP</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>olaf.fasshauer@dechert.com</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -788,25 +788,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>Galia</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Galia Scherf</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>KRB Law Firm</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>galias@krb.law</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -820,25 +820,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>Vincenzo</v>
       </c>
       <c r="B14" t="str">
-        <v/>
+        <v>Vincenzo Armenio</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Gitti And Partners Law Firm</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>vincenzo.armenio@grplex.com</v>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -852,25 +852,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Alex</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>Alex Berman</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Fischer</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>aberman@fbclawyers.com</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -884,25 +884,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Arne</v>
+        <v>Gergana</v>
       </c>
       <c r="B16" t="str">
-        <v>Arne Bolch</v>
+        <v>Gergana Monovska</v>
       </c>
       <c r="C16" t="str">
-        <v>Dechert LLP</v>
+        <v>DGKV</v>
       </c>
       <c r="D16" t="str">
-        <v>Luxembourg</v>
+        <v>Bulgaria</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>arne.bolch@dechert.com</v>
+        <v>gergana.monovska@dgkv.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,25 +916,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Eric</v>
+        <v>Janus</v>
       </c>
       <c r="B17" t="str">
-        <v>G Eric Brunstad Jr</v>
+        <v>Janus Skak Olufsen</v>
       </c>
       <c r="C17" t="str">
-        <v>Dechert LLP</v>
+        <v>DahlLaw</v>
       </c>
       <c r="D17" t="str">
-        <v>Not Found</v>
+        <v>Denmark</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>eric.brunstad@dechert.com</v>
+        <v>jso@dahllaw.dk</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,25 +948,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Aisanat</v>
+        <v>Paula</v>
       </c>
       <c r="B18" t="str">
-        <v>Aisanat Safarbek Kyzy</v>
+        <v>Paula Kay</v>
       </c>
       <c r="C18" t="str">
-        <v>GRATA International</v>
+        <v>Harneys</v>
       </c>
       <c r="D18" t="str">
-        <v>Not Found</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>asafarbek@gratanet.com</v>
+        <v>paula.kay@harneys.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,25 +980,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>Sofia</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>Sofia Chatzigiannidou</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>Zepos And Yannopoulos</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>Greece</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>s.chatzigiannidou@zeya.com</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Amanjit</v>
+        <v>Dmitri</v>
       </c>
       <c r="B20" t="str">
-        <v>Amanjit K Fagura</v>
+        <v>Dmitri Nikolaenko</v>
       </c>
       <c r="C20" t="str">
-        <v>Dechert LLP</v>
+        <v>Njord Law</v>
       </c>
       <c r="D20" t="str">
-        <v>the UAE</v>
+        <v>Latvia</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>amanjit.fagura@dechert.com</v>
+        <v>dn@njordlaw.lv</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B21,FIND(" ",B21)-1),B21))</v>
       </c>
       <c r="B21" t="str">
         <v/>
@@ -1056,7 +1056,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F21" t="str">
         <v/>
@@ -1076,25 +1076,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Judit</v>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>Judit Gulas</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>Szecskay</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Hungary</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>judit.gulas@szecskay.com</v>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1108,25 +1108,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Dean</v>
+        <v>Dong</v>
       </c>
       <c r="B23" t="str">
-        <v>Dean Collins</v>
+        <v>Dong Wu</v>
       </c>
       <c r="C23" t="str">
-        <v>Dechert LLP</v>
+        <v>Huiye Law</v>
       </c>
       <c r="D23" t="str">
-        <v>Singapore</v>
+        <v>China</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>dean.collins@dechert.com</v>
+        <v>wudong@huiyelaw.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1140,25 +1140,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>Rodrigo</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>Rodrigo Taboada</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>Consortium Legal</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>Nicaragua</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>rtaboada@consortiumlegal.com</v>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1172,25 +1172,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>Fernando</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>Fernando Vizcaino</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Ecija</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Spain</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>fvizcaino@ecija.com</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v/>
+        <v>Lene</v>
       </c>
       <c r="B26" t="str">
-        <v/>
+        <v>Lene Lausen</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>Clemens Law</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>Poland</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>lel@clemenslaw.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B27,FIND(" ",B27)-1),B27))</v>
       </c>
       <c r="B27" t="str">
         <v/>
@@ -1248,7 +1248,7 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F27" t="str">
         <v/>
@@ -1268,25 +1268,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Margherita</v>
+        <v>Sarah</v>
       </c>
       <c r="B28" t="str">
-        <v>Margherita Barié</v>
+        <v>Sarah Demerling</v>
       </c>
       <c r="C28" t="str">
-        <v>Carnelutti Law Firm</v>
+        <v>Walkers</v>
       </c>
       <c r="D28" t="str">
-        <v>Italy</v>
+        <v>Bermuda</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>mbarie@carnelutti.com</v>
+        <v>sarah.demerling@walkersglobal.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,25 +1300,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v>Grant</v>
       </c>
       <c r="B29" t="str">
-        <v/>
+        <v>Grant Carroll</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>Campbells Legal</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>Dominican Republic</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>gcarroll@campbellslegal.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1332,25 +1332,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Paolo</v>
+        <v>Ruta</v>
       </c>
       <c r="B30" t="str">
-        <v>Paolo Baruffi</v>
+        <v>Ruta Armone</v>
       </c>
       <c r="C30" t="str">
-        <v>Carnelutti Law Firm</v>
+        <v>Ellex</v>
       </c>
       <c r="D30" t="str">
-        <v>Italy</v>
+        <v>Lithuania</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>pbaruffi@carnelutti.com</v>
+        <v>ruta.armone@ellex.legal</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Eric</v>
+        <v>Henrik</v>
       </c>
       <c r="B31" t="str">
-        <v>Eric Deltour</v>
+        <v>Henrik Bang Thorning</v>
       </c>
       <c r="C31" t="str">
-        <v>Dechert LLP</v>
+        <v>Kromann Reumert</v>
       </c>
       <c r="D31" t="str">
-        <v>Belgium</v>
+        <v>Denmark</v>
       </c>
       <c r="E31" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>eric.deltour@dechert.com</v>
+        <v>het@kromannreumert.com</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,25 +1396,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>Machiuanna</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Machiuanna Chu</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>Deacons</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>machiuanna.chu@deacons.com</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Bingna</v>
+        <v>Gareth</v>
       </c>
       <c r="B33" t="str">
-        <v>Bingna Guo</v>
+        <v>Gareth Morgan *****</v>
       </c>
       <c r="C33" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Collas Crill</v>
       </c>
       <c r="D33" t="str">
-        <v>China</v>
+        <v>Bermuda</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>bingna.guo@morganlewis.com</v>
+        <v>gareth.morgan@collascrill.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
       </c>
       <c r="B34" t="str">
         <v/>
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F34" t="str">
         <v/>
@@ -1492,25 +1492,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v>Ardak</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>Ardak Idayatova</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Kinstellar</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>Kazakhstan</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>ardak.idayatova@kinstellar.com</v>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
       </c>
       <c r="B36" t="str">
         <v/>
@@ -1536,7 +1536,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F36" t="str">
         <v/>
@@ -1556,25 +1556,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Daniel</v>
+        <v>Hanni</v>
       </c>
       <c r="B37" t="str">
-        <v>Daniel Margulies</v>
+        <v>Hanni Avinery</v>
       </c>
       <c r="C37" t="str">
-        <v>Dechert LLP</v>
+        <v>Meitar Law Offices</v>
       </c>
       <c r="D37" t="str">
-        <v>Hong Kong</v>
+        <v>Israel</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>daniel.margulies@dechert.com</v>
+        <v>hanni@meitar.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,25 +1588,25 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Suzanne</v>
+        <v>Lisa</v>
       </c>
       <c r="B38" t="str">
-        <v>Suzanne Brooker</v>
+        <v>Lisa Raymond</v>
       </c>
       <c r="C38" t="str">
-        <v>Spencer West</v>
+        <v>Keystone Law</v>
       </c>
       <c r="D38" t="str">
         <v>England</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>suzanne.brooker@spencer-west.com</v>
+        <v>lisa.raymond@keystonelaw.co.uk</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B39,FIND(" ",B39)-1),B39))</v>
       </c>
       <c r="B39" t="str">
         <v/>
@@ -1632,7 +1632,7 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F39" t="str">
         <v/>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Karen</v>
+        <v>=PROPER(IFERROR(LEFT(B40,FIND(" ",B40)-1),B40))</v>
       </c>
       <c r="B40" t="str">
-        <v>Karen L Anderberg</v>
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>Dechert LLP</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>karen.anderberg@dechert.com</v>
+        <v/>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v/>
+        <v>Ciara</v>
       </c>
       <c r="B41" t="str">
-        <v/>
+        <v>Ciara Buckley</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>Arthur Cox</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>Ireland</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>ciara.buckley@arthurcox.com</v>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1716,25 +1716,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Jerry</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Jerry D Samuel Mciarb</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>Conyers</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>British Virgin Islands</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>jerry.samuel@conyers.com</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
+        <v>Alan</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>Alan Roberts</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>AL Goodbody</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>Ireland</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>aroberts@algoodbody.com</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B44,FIND(" ",B44)-1),B44))</v>
       </c>
       <c r="B44" t="str">
         <v/>
@@ -1792,7 +1792,7 @@
         <v/>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F44" t="str">
         <v/>
@@ -1812,25 +1812,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Stephen</v>
+        <v>Deepak</v>
       </c>
       <c r="B45" t="str">
-        <v>Stephen D Zide</v>
+        <v>Deepak Kumar Lamba</v>
       </c>
       <c r="C45" t="str">
-        <v>Dechert LLP</v>
+        <v>Remfry And Sagar</v>
       </c>
       <c r="D45" t="str">
-        <v>Not Found</v>
+        <v>India</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>stephen.zide@dechert.com</v>
+        <v>deepak.lamba@remfry.com</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B46,FIND(" ",B46)-1),B46))</v>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -1856,7 +1856,7 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F46" t="str">
         <v/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -1888,7 +1888,7 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F47" t="str">
         <v/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B48,FIND(" ",B48)-1),B48))</v>
       </c>
       <c r="B48" t="str">
         <v/>
@@ -1920,7 +1920,7 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F48" t="str">
         <v/>
@@ -1940,25 +1940,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v/>
+        <v>Karen</v>
       </c>
       <c r="B49" t="str">
-        <v/>
+        <v>Karen L Anderberg</v>
       </c>
       <c r="C49" t="str">
-        <v/>
+        <v>Dechert LLP</v>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>karen.anderberg@dechert.com</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,25 +1972,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Olivia</v>
+        <v>=PROPER(IFERROR(LEFT(B50,FIND(" ",B50)-1),B50))</v>
       </c>
       <c r="B50" t="str">
-        <v>Olivia Bernardeau-Paupe</v>
+        <v/>
       </c>
       <c r="C50" t="str">
-        <v>Dechert LLP</v>
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>France</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>olivia.bernardeaupaupe@dechert.com</v>
+        <v/>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,25 +2004,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Amanda</v>
+        <v>=PROPER(IFERROR(LEFT(B51,FIND(" ",B51)-1),B51))</v>
       </c>
       <c r="B51" t="str">
-        <v>Amanda K Antons Ph D</v>
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>Dechert LLP</v>
+        <v/>
       </c>
       <c r="D51" t="str">
-        <v>Dominican Republic</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>amanda.antons@dechert.com</v>
+        <v/>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
       </c>
       <c r="B52" t="str">
         <v/>
@@ -2048,7 +2048,7 @@
         <v/>
       </c>
       <c r="E52" t="str">
-        <v/>
+        <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
       </c>
       <c r="F52" t="str">
         <v/>
@@ -2067,9 +2067,6 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="str">
-        <v/>
-      </c>
       <c r="P53" t="str">
         <v>Denmark</v>
       </c>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -436,16 +436,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Juha</v>
+        <v>David</v>
       </c>
       <c r="B2" t="str">
-        <v>Juha Koponen</v>
+        <v>David Nevesely</v>
       </c>
       <c r="C2" t="str">
-        <v>Borenius</v>
+        <v>Havel Partners</v>
       </c>
       <c r="D2" t="str">
-        <v>Finland</v>
+        <v>Czech Republic</v>
       </c>
       <c r="E2" t="str">
         <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
@@ -454,7 +454,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>juha.koponen@borenius.com</v>
+        <v>david.nevesely@havelpartners.cz</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -468,16 +468,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Morvarid</v>
+        <v>Chai</v>
       </c>
       <c r="B3" t="str">
-        <v>Morvarid Dorkhan Nilsson</v>
+        <v>Chai Lu</v>
       </c>
       <c r="C3" t="str">
-        <v>Magnusson Law</v>
+        <v>Hankun Law</v>
       </c>
       <c r="D3" t="str">
-        <v>Sweden</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E3" t="str">
         <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
@@ -486,7 +486,7 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>morvarid.dorkhan@magnussonlaw.com</v>
+        <v>lu.chai@hankunlaw.com</v>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,16 +500,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Filippo</v>
+        <v>Mark</v>
       </c>
       <c r="B4" t="str">
-        <v>Filippo Caso</v>
+        <v>Mark Davis</v>
       </c>
       <c r="C4" t="str">
-        <v>Pedersoli</v>
+        <v>Mishcon Karas</v>
       </c>
       <c r="D4" t="str">
-        <v>Italy</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E4" t="str">
         <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
@@ -518,7 +518,7 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>fcaso@pglex.it</v>
+        <v>mark.davis@mishcon.com</v>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -532,16 +532,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Suzanne</v>
+        <v>Peter</v>
       </c>
       <c r="B5" t="str">
-        <v>Suzanne Brooker</v>
+        <v>Peter</v>
       </c>
       <c r="C5" t="str">
-        <v>Spencer West</v>
+        <v>Schoenherr</v>
       </c>
       <c r="D5" t="str">
-        <v>England</v>
+        <v>Austria</v>
       </c>
       <c r="E5" t="str">
         <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
@@ -550,7 +550,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>suzanne.brooker@spencer-west.com</v>
+        <v>p.feyl@schoenherr.eu</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Katja</v>
+        <v>Karen</v>
       </c>
       <c r="B6" t="str">
-        <v>Katja Peratalo</v>
+        <v>Karen Chan</v>
       </c>
       <c r="C6" t="str">
-        <v>Hannes Snellman</v>
+        <v>Deacons</v>
       </c>
       <c r="D6" t="str">
-        <v>Finland</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E6" t="str">
         <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
@@ -582,7 +582,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>katja.peratalo@hannessnellman.com</v>
+        <v>karen.chan@deacons.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Amanda</v>
+        <v>Darren</v>
       </c>
       <c r="B7" t="str">
-        <v>Amanda Montague</v>
+        <v>Darren Bacon</v>
       </c>
       <c r="C7" t="str">
-        <v>Myers Fletcher And Gordon</v>
+        <v>Mourant</v>
       </c>
       <c r="D7" t="str">
-        <v>Jamaica</v>
+        <v>Bermuda</v>
       </c>
       <c r="E7" t="str">
         <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
@@ -614,7 +614,7 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>amanda.montague@mfg.com.jm</v>
+        <v>darren.bacon@mourant.com</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -628,16 +628,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>=PROPER(IFERROR(LEFT(B8,FIND(" ",B8)-1),B8))</v>
+        <v>Ray</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>Ray Bu</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>Fangda Partners</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Hong Kong</v>
       </c>
       <c r="E8" t="str">
         <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
@@ -646,7 +646,7 @@
         <v/>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>rui.bu@fangdalaw.com</v>
       </c>
       <c r="P8" t="str">
         <v>Argentina</v>
@@ -660,16 +660,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Alex</v>
+        <v>Oliver</v>
       </c>
       <c r="B9" t="str">
-        <v>Alex Hall Taylor</v>
+        <v>Oliver Von Schiller</v>
       </c>
       <c r="C9" t="str">
-        <v>Carey Olsen</v>
+        <v>Ecija</v>
       </c>
       <c r="D9" t="str">
-        <v>Dominican Republic</v>
+        <v>Spain</v>
       </c>
       <c r="E9" t="str">
         <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
@@ -678,7 +678,7 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>alex.halltaylor@careyolsen.com</v>
+        <v>ovonschiller@ecija.com</v>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Paul</v>
+        <v>Thomas</v>
       </c>
       <c r="B10" t="str">
-        <v>Paul Massey</v>
+        <v>Thomas Christner</v>
       </c>
       <c r="C10" t="str">
-        <v>Spruson And Ferguson</v>
+        <v>GÖRG</v>
       </c>
       <c r="D10" t="str">
-        <v>Australia</v>
+        <v>Germany</v>
       </c>
       <c r="E10" t="str">
         <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
@@ -710,7 +710,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>paul.massey@spruson.com</v>
+        <v>tchristner@goerg.de</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Alvaro</v>
+        <v>Dali</v>
       </c>
       <c r="B11" t="str">
-        <v>Alvaro Cala</v>
+        <v>Dali Al Habboub</v>
       </c>
       <c r="C11" t="str">
-        <v>Brigrard Urrutia</v>
+        <v>Dentons</v>
       </c>
       <c r="D11" t="str">
-        <v>Colombia</v>
+        <v>Oman</v>
       </c>
       <c r="E11" t="str">
         <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
@@ -742,7 +742,7 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>acala@bu.com.co</v>
+        <v>dali.alhabboub@dentons.com</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>=PROPER(IFERROR(LEFT(B12,FIND(" ",B12)-1),B12))</v>
+        <v>Shantanu</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>Shantanu Sahay</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>Anand And Anand</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>India</v>
       </c>
       <c r="E12" t="str">
         <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
@@ -774,7 +774,7 @@
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>shantanu@anandandanand.com</v>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Galia</v>
+        <v>Alon</v>
       </c>
       <c r="B13" t="str">
-        <v>Galia Scherf</v>
+        <v>Alon Anava</v>
       </c>
       <c r="C13" t="str">
-        <v>KRB Law Firm</v>
+        <v>Barnea And Co</v>
       </c>
       <c r="D13" t="str">
         <v>Israel</v>
@@ -806,7 +806,7 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>galias@krb.law</v>
+        <v>aanava@barlaw.co.il</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Vincenzo</v>
+        <v>Tobias</v>
       </c>
       <c r="B14" t="str">
-        <v>Vincenzo Armenio</v>
+        <v>Tobias Edenman</v>
       </c>
       <c r="C14" t="str">
-        <v>Gitti And Partners Law Firm</v>
+        <v>Magnusson Law</v>
       </c>
       <c r="D14" t="str">
-        <v>Italy</v>
+        <v>Sweden</v>
       </c>
       <c r="E14" t="str">
         <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
@@ -838,7 +838,7 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>vincenzo.armenio@grplex.com</v>
+        <v>tobias.edenman@magnussonlaw.com</v>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Alex</v>
+        <v>Joanna</v>
       </c>
       <c r="B15" t="str">
-        <v>Alex Berman</v>
+        <v>Joanna Dimmock</v>
       </c>
       <c r="C15" t="str">
-        <v>Fischer</v>
+        <v>Paul Hastings</v>
       </c>
       <c r="D15" t="str">
-        <v>Israel</v>
+        <v>England</v>
       </c>
       <c r="E15" t="str">
         <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
@@ -870,7 +870,7 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>aberman@fbclawyers.com</v>
+        <v>joannadimmock@paulhastings.com</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Gergana</v>
+        <v>Anurag</v>
       </c>
       <c r="B16" t="str">
-        <v>Gergana Monovska</v>
+        <v>Anurag Shrivastav</v>
       </c>
       <c r="C16" t="str">
-        <v>DGKV</v>
+        <v>JSA</v>
       </c>
       <c r="D16" t="str">
-        <v>Bulgaria</v>
+        <v>India</v>
       </c>
       <c r="E16" t="str">
         <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
@@ -902,7 +902,7 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>gergana.monovska@dgkv.com</v>
+        <v>anurag.shrivastav@jsalaw.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Janus</v>
+        <v>Feng</v>
       </c>
       <c r="B17" t="str">
-        <v>Janus Skak Olufsen</v>
+        <v>Feng Tao</v>
       </c>
       <c r="C17" t="str">
-        <v>DahlLaw</v>
+        <v>Longan Law</v>
       </c>
       <c r="D17" t="str">
-        <v>Denmark</v>
+        <v>China</v>
       </c>
       <c r="E17" t="str">
         <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
@@ -934,7 +934,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>jso@dahllaw.dk</v>
+        <v>fengtao@longanlaw.com</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Paula</v>
+        <v>Gina</v>
       </c>
       <c r="B18" t="str">
-        <v>Paula Kay</v>
+        <v>Gina Phillipps Black</v>
       </c>
       <c r="C18" t="str">
-        <v>Harneys</v>
+        <v>Myers Fletcher And Gordon</v>
       </c>
       <c r="D18" t="str">
-        <v>Hong Kong</v>
+        <v>Jamaica</v>
       </c>
       <c r="E18" t="str">
         <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
@@ -966,7 +966,7 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>paula.kay@harneys.com</v>
+        <v>gina.black@mfg.com.jm</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Sofia</v>
+        <v>Kaichang</v>
       </c>
       <c r="B19" t="str">
-        <v>Sofia Chatzigiannidou</v>
+        <v>Kaichang Zhou</v>
       </c>
       <c r="C19" t="str">
-        <v>Zepos And Yannopoulos</v>
+        <v>Huiye Law</v>
       </c>
       <c r="D19" t="str">
-        <v>Greece</v>
+        <v>China</v>
       </c>
       <c r="E19" t="str">
         <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
@@ -998,7 +998,7 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>s.chatzigiannidou@zeya.com</v>
+        <v>kaichang.zhou@huiyelaw.com</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Dmitri</v>
+        <v>Jun</v>
       </c>
       <c r="B20" t="str">
-        <v>Dmitri Nikolaenko</v>
+        <v>Jun Hee Kim</v>
       </c>
       <c r="C20" t="str">
-        <v>Njord Law</v>
+        <v>Arnold And Porter</v>
       </c>
       <c r="D20" t="str">
-        <v>Latvia</v>
+        <v>Korea (South)</v>
       </c>
       <c r="E20" t="str">
         <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>dn@njordlaw.lv</v>
+        <v>jh.kim@arnoldporter.com</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>=PROPER(IFERROR(LEFT(B21,FIND(" ",B21)-1),B21))</v>
+        <v>Alexander</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>Alexander Duisberg</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>Ashurst</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E21" t="str">
         <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1062,7 +1062,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>alexander.duisberg@ashurst.com</v>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Judit</v>
+        <v>Tero</v>
       </c>
       <c r="B22" t="str">
-        <v>Judit Gulas</v>
+        <v>Tero Kovanen</v>
       </c>
       <c r="C22" t="str">
-        <v>Szecskay</v>
+        <v>Borenius</v>
       </c>
       <c r="D22" t="str">
-        <v>Hungary</v>
+        <v>Finland</v>
       </c>
       <c r="E22" t="str">
         <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1094,7 +1094,7 @@
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>judit.gulas@szecskay.com</v>
+        <v>tero.kovanen@borenius.com</v>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Dong</v>
+        <v>Fred</v>
       </c>
       <c r="B23" t="str">
-        <v>Dong Wu</v>
+        <v>Fred Phillips</v>
       </c>
       <c r="C23" t="str">
-        <v>Huiye Law</v>
+        <v>Lex Caribbean</v>
       </c>
       <c r="D23" t="str">
-        <v>China</v>
+        <v>Caribe</v>
       </c>
       <c r="E23" t="str">
         <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>wudong@huiyelaw.com</v>
+        <v>fred.phillips@bb.lexcaribbean.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rodrigo</v>
+        <v>Grainne</v>
       </c>
       <c r="B24" t="str">
-        <v>Rodrigo Taboada</v>
+        <v>Grainne Callanan</v>
       </c>
       <c r="C24" t="str">
-        <v>Consortium Legal</v>
+        <v>Matheson</v>
       </c>
       <c r="D24" t="str">
-        <v>Nicaragua</v>
+        <v>Ireland</v>
       </c>
       <c r="E24" t="str">
         <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1158,7 +1158,7 @@
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>rtaboada@consortiumlegal.com</v>
+        <v>grainne.callanan@matheson.com</v>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Fernando</v>
+        <v>Sebastiano</v>
       </c>
       <c r="B25" t="str">
-        <v>Fernando Vizcaino</v>
+        <v>Sebastiano Cassani</v>
       </c>
       <c r="C25" t="str">
-        <v>Ecija</v>
+        <v>Pedersoli</v>
       </c>
       <c r="D25" t="str">
-        <v>Spain</v>
+        <v>Italy</v>
       </c>
       <c r="E25" t="str">
         <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1190,7 +1190,7 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>fvizcaino@ecija.com</v>
+        <v>cassani@pglex.it</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Lene</v>
+        <v>Qiuzhao</v>
       </c>
       <c r="B26" t="str">
-        <v>Lene Lausen</v>
+        <v>Qiuzhao Wang</v>
       </c>
       <c r="C26" t="str">
-        <v>Clemens Law</v>
+        <v>TC Law Firm</v>
       </c>
       <c r="D26" t="str">
-        <v>Poland</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E26" t="str">
         <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1222,7 +1222,7 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>lel@clemenslaw.com</v>
+        <v>wqc@tclawfirm.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>=PROPER(IFERROR(LEFT(B27,FIND(" ",B27)-1),B27))</v>
+        <v>Clinton</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>Clinton Hempel</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Carey Olsen</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>Dominican Republic</v>
       </c>
       <c r="E27" t="str">
         <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1254,7 +1254,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>clinton.hempel@careyolsen.com</v>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,16 +1268,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Sarah</v>
+        <v>Andrew</v>
       </c>
       <c r="B28" t="str">
-        <v>Sarah Demerling</v>
+        <v>Andrew Feighery</v>
       </c>
       <c r="C28" t="str">
-        <v>Walkers</v>
+        <v>Byrne Wallace</v>
       </c>
       <c r="D28" t="str">
-        <v>Bermuda</v>
+        <v>Ireland</v>
       </c>
       <c r="E28" t="str">
         <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1286,7 +1286,7 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>sarah.demerling@walkersglobal.com</v>
+        <v>afeighery@byrnewallace.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Grant</v>
+        <v>Blazej</v>
       </c>
       <c r="B29" t="str">
-        <v>Grant Carroll</v>
+        <v>Blazej Czwarnok</v>
       </c>
       <c r="C29" t="str">
-        <v>Campbells Legal</v>
+        <v>Gide Loyrette Nouel</v>
       </c>
       <c r="D29" t="str">
-        <v>Dominican Republic</v>
+        <v>Poland</v>
       </c>
       <c r="E29" t="str">
         <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1318,7 +1318,7 @@
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>gcarroll@campbellslegal.com</v>
+        <v>blazej.czwarnok@gide.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Ruta</v>
+        <v>Jacob</v>
       </c>
       <c r="B30" t="str">
-        <v>Ruta Armone</v>
+        <v>Jacob MøLler</v>
       </c>
       <c r="C30" t="str">
-        <v>Ellex</v>
+        <v>Kromann Reumert</v>
       </c>
       <c r="D30" t="str">
-        <v>Lithuania</v>
+        <v>Denmark</v>
       </c>
       <c r="E30" t="str">
         <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1350,7 +1350,7 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>ruta.armone@ellex.legal</v>
+        <v>jmo@kromannreumert.com</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Henrik</v>
+        <v>Chen</v>
       </c>
       <c r="B31" t="str">
-        <v>Henrik Bang Thorning</v>
+        <v>Chen Fayun</v>
       </c>
       <c r="C31" t="str">
-        <v>Kromann Reumert</v>
+        <v>Grandall</v>
       </c>
       <c r="D31" t="str">
-        <v>Denmark</v>
+        <v>China</v>
       </c>
       <c r="E31" t="str">
         <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1382,7 +1382,7 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>het@kromannreumert.com</v>
+        <v>chenfayun@grandall.com.cn</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Machiuanna</v>
+        <v>Gao</v>
       </c>
       <c r="B32" t="str">
-        <v>Machiuanna Chu</v>
+        <v>Gao Mingyue</v>
       </c>
       <c r="C32" t="str">
-        <v>Deacons</v>
+        <v>Guantao Law Firm</v>
       </c>
       <c r="D32" t="str">
-        <v>Hong Kong</v>
+        <v>China</v>
       </c>
       <c r="E32" t="str">
         <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1414,7 +1414,7 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>machiuanna.chu@deacons.com</v>
+        <v>gaomy@guantao.com</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Gareth</v>
+        <v>Heidi</v>
       </c>
       <c r="B33" t="str">
-        <v>Gareth Morgan *****</v>
+        <v>Heidi Lee</v>
       </c>
       <c r="C33" t="str">
-        <v>Collas Crill</v>
+        <v>Howse Williams</v>
       </c>
       <c r="D33" t="str">
-        <v>Bermuda</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E33" t="str">
         <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1446,7 +1446,7 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>gareth.morgan@collascrill.com</v>
+        <v>heidi.lee@howsewilliams.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
+        <v>Anna</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Anna Kois-Mizgier</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>BNT</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Poland</v>
       </c>
       <c r="E34" t="str">
         <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1478,7 +1478,7 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>anna.kois-mizgier@bnt.eu</v>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Ardak</v>
+        <v>Yahal</v>
       </c>
       <c r="B35" t="str">
-        <v>Ardak Idayatova</v>
+        <v>Yahal Baumel</v>
       </c>
       <c r="C35" t="str">
-        <v>Kinstellar</v>
+        <v>Aron Tadmor Levy</v>
       </c>
       <c r="D35" t="str">
-        <v>Kazakhstan</v>
+        <v>Israel</v>
       </c>
       <c r="E35" t="str">
         <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1510,7 +1510,7 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>ardak.idayatova@kinstellar.com</v>
+        <v>yahal@arnontl.com</v>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1524,16 +1524,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
+        <v>Rodrigo</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Rodrigo Boccioletti</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Gianni And Origoni</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>Italy</v>
       </c>
       <c r="E36" t="str">
         <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1542,7 +1542,7 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>rboccioletti@gop.it</v>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Hanni</v>
+        <v>Meir</v>
       </c>
       <c r="B37" t="str">
-        <v>Hanni Avinery</v>
+        <v>Meir Dominitz</v>
       </c>
       <c r="C37" t="str">
-        <v>Meitar Law Offices</v>
+        <v>Gornitzky And Co</v>
       </c>
       <c r="D37" t="str">
         <v>Israel</v>
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>hanni@meitar.com</v>
+        <v>meird@gornitzky.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Lisa</v>
+        <v>Artur</v>
       </c>
       <c r="B38" t="str">
-        <v>Lisa Raymond</v>
+        <v>Artur Bunk</v>
       </c>
       <c r="C38" t="str">
-        <v>Keystone Law</v>
+        <v>Spencer West</v>
       </c>
       <c r="D38" t="str">
-        <v>England</v>
+        <v>Germany</v>
       </c>
       <c r="E38" t="str">
         <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>lisa.raymond@keystonelaw.co.uk</v>
+        <v>artur.bunk@spencer-west.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>=PROPER(IFERROR(LEFT(B39,FIND(" ",B39)-1),B39))</v>
+        <v>Hagit</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>Hagit Avrahami</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Meitar Law Offices</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E39" t="str">
         <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1638,7 +1638,7 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>hagita@meitar.com</v>
       </c>
       <c r="P39" t="str">
         <v>Central African Republic</v>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>=PROPER(IFERROR(LEFT(B40,FIND(" ",B40)-1),B40))</v>
+        <v>Martin</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>Martin Pearse</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>Keystone Law</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E40" t="str">
         <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1670,7 +1670,7 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>martin.pearse@keystonelaw.co.uk</v>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1684,16 +1684,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Ciara</v>
+        <v>Oskar</v>
       </c>
       <c r="B41" t="str">
-        <v>Ciara Buckley</v>
+        <v>Oskar SigurðSson</v>
       </c>
       <c r="C41" t="str">
-        <v>Arthur Cox</v>
+        <v>LEX Logmannsstofa</v>
       </c>
       <c r="D41" t="str">
-        <v>Ireland</v>
+        <v>Iceland</v>
       </c>
       <c r="E41" t="str">
         <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1702,7 +1702,7 @@
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>ciara.buckley@arthurcox.com</v>
+        <v>oskar@lex.is</v>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Jerry</v>
+        <v>Satish</v>
       </c>
       <c r="B42" t="str">
-        <v>Jerry D Samuel Mciarb</v>
+        <v>Satish Srinivasan</v>
       </c>
       <c r="C42" t="str">
-        <v>Conyers</v>
+        <v>ALMT Legal</v>
       </c>
       <c r="D42" t="str">
-        <v>British Virgin Islands</v>
+        <v>India</v>
       </c>
       <c r="E42" t="str">
         <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1734,7 +1734,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>jerry.samuel@conyers.com</v>
+        <v>ssrinivasan@almtlegal.com</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Alan</v>
+        <v>Bruno</v>
       </c>
       <c r="B43" t="str">
-        <v>Alan Roberts</v>
+        <v>Bruno Bartocci</v>
       </c>
       <c r="C43" t="str">
-        <v>AL Goodbody</v>
+        <v>Legance</v>
       </c>
       <c r="D43" t="str">
-        <v>Ireland</v>
+        <v>Italy</v>
       </c>
       <c r="E43" t="str">
         <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1766,7 +1766,7 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>aroberts@algoodbody.com</v>
+        <v>bbartocci@legance.it%20</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,16 +1780,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>=PROPER(IFERROR(LEFT(B44,FIND(" ",B44)-1),B44))</v>
+        <v>Jesper</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>Jesper HøJ Josefsen</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>DahlLaw</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>Denmark</v>
       </c>
       <c r="E44" t="str">
         <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1798,7 +1798,7 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>jhj@dahllaw.dk</v>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Deepak</v>
+        <v>Juli</v>
       </c>
       <c r="B45" t="str">
-        <v>Deepak Kumar Lamba</v>
+        <v>Juli Mansnerus</v>
       </c>
       <c r="C45" t="str">
-        <v>Remfry And Sagar</v>
+        <v>Dittmar And Indrenius</v>
       </c>
       <c r="D45" t="str">
-        <v>India</v>
+        <v>Finland</v>
       </c>
       <c r="E45" t="str">
         <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1830,7 +1830,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>deepak.lamba@remfry.com</v>
+        <v>juli.mansnerus@dittmar.fi</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1844,16 +1844,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>=PROPER(IFERROR(LEFT(B46,FIND(" ",B46)-1),B46))</v>
+        <v>Paul</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>Paul Nettleship *****</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>Collas Crill</v>
       </c>
       <c r="D46" t="str">
-        <v/>
+        <v>Bermuda</v>
       </c>
       <c r="E46" t="str">
         <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1862,7 +1862,7 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>paul.nettleship@collascrill.com</v>
       </c>
       <c r="P46" t="str">
         <v>Costa Rica</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
+        <v>Tristan</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>Tristan Ozanne</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>Appleby Global</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>Bermuda</v>
       </c>
       <c r="E47" t="str">
         <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1894,7 +1894,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>tozanne@applebyglobal.com</v>
       </c>
       <c r="P47" t="str">
         <v>Cote D&amp;apos;ivoire</v>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>=PROPER(IFERROR(LEFT(B48,FIND(" ",B48)-1),B48))</v>
+        <v>Amir</v>
       </c>
       <c r="B48" t="str">
-        <v/>
+        <v>Amir Chen</v>
       </c>
       <c r="C48" t="str">
-        <v/>
+        <v>Fischer</v>
       </c>
       <c r="D48" t="str">
-        <v/>
+        <v>Israel</v>
       </c>
       <c r="E48" t="str">
         <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1926,7 +1926,7 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <v/>
+        <v>achen@fbclawyers.com</v>
       </c>
       <c r="P48" t="str">
         <v>Croatia</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Karen</v>
+        <v>Tal</v>
       </c>
       <c r="B49" t="str">
-        <v>Karen L Anderberg</v>
+        <v>Tal Alon</v>
       </c>
       <c r="C49" t="str">
-        <v>Dechert LLP</v>
+        <v>EBN</v>
       </c>
       <c r="D49" t="str">
-        <v>England</v>
+        <v>Israel</v>
       </c>
       <c r="E49" t="str">
         <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1958,7 +1958,7 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>karen.anderberg@dechert.com</v>
+        <v>tala@ebnlaw.co.il</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>=PROPER(IFERROR(LEFT(B50,FIND(" ",B50)-1),B50))</v>
+        <v>Grainne</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>Grainne King</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>Harneys</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>Cayman Islands</v>
       </c>
       <c r="E50" t="str">
         <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1990,7 +1990,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>grainne.king@harneys.com</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>=PROPER(IFERROR(LEFT(B51,FIND(" ",B51)-1),B51))</v>
+        <v>Alfred</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v>Alfred Hennemann</v>
       </c>
       <c r="C51" t="str">
-        <v/>
+        <v>Meyer Köring</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>Denmark</v>
       </c>
       <c r="E51" t="str">
         <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
@@ -2022,7 +2022,7 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>hennemann@meyer-koering.de</v>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
+        <v>Katalin</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>Katalin Grosz</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>Szecskay</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>Hungary</v>
       </c>
       <c r="E52" t="str">
         <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
@@ -2054,7 +2054,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>katalin.grosz@szecskay.com</v>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -32,8 +32,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -436,25 +440,23 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>David</v>
+        <v>Asem</v>
       </c>
       <c r="B2" t="str">
-        <v>David Nevesely</v>
+        <v>Asem B Bakenova</v>
       </c>
       <c r="C2" t="str">
-        <v>Havel Partners</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D2" t="str">
-        <v>Czech Republic</v>
+        <v>Kazakhstan</v>
       </c>
       <c r="E2" t="str">
-        <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F2" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D2,P2:Q250,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G2" t="str">
-        <v>david.nevesely@havelpartners.cz</v>
+        <v>asem.bakenova@morganlewis.com</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -468,25 +470,23 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Chai</v>
+        <v>Bianco</v>
       </c>
       <c r="B3" t="str">
-        <v>Chai Lu</v>
+        <v>G Bianco *****</v>
       </c>
       <c r="C3" t="str">
-        <v>Hankun Law</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D3" t="str">
-        <v>Hong Kong</v>
+        <v>Not Found</v>
       </c>
       <c r="E3" t="str">
-        <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D3,P3:Q251,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G3" t="str">
-        <v>lu.chai@hankunlaw.com</v>
+        <v>g.bianco@giambronelaw.com?subject=email%20from%20website:</v>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,25 +500,23 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mark</v>
+        <v>Connie</v>
       </c>
       <c r="B4" t="str">
-        <v>Mark Davis</v>
+        <v>Connie Cheung</v>
       </c>
       <c r="C4" t="str">
-        <v>Mishcon Karas</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D4" t="str">
-        <v>Hong Kong</v>
+        <v>China</v>
       </c>
       <c r="E4" t="str">
-        <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D4,P4:Q252,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G4" t="str">
-        <v>mark.davis@mishcon.com</v>
+        <v>connie.cheung@morganlewis.com</v>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -532,25 +530,23 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Peter</v>
+        <v>Christina</v>
       </c>
       <c r="B5" t="str">
-        <v>Peter</v>
+        <v>Christina Renner</v>
       </c>
       <c r="C5" t="str">
-        <v>Schoenherr</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D5" t="str">
-        <v>Austria</v>
+        <v>Belgium</v>
       </c>
       <c r="E5" t="str">
-        <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D5,P5:Q253,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G5" t="str">
-        <v>p.feyl@schoenherr.eu</v>
+        <v>christina.renner@morganlewis.com</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -564,25 +560,23 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Karen</v>
+        <v>Daja</v>
       </c>
       <c r="B6" t="str">
-        <v>Karen Chan</v>
+        <v>Daja Apetz-Dreier</v>
       </c>
       <c r="C6" t="str">
-        <v>Deacons</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D6" t="str">
-        <v>Hong Kong</v>
+        <v>Germany</v>
       </c>
       <c r="E6" t="str">
-        <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D6,P6:Q254,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G6" t="str">
-        <v>karen.chan@deacons.com</v>
+        <v>daja.apetz-dreier@morganlewis.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -596,25 +590,23 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Darren</v>
+        <v>Andrea</v>
       </c>
       <c r="B7" t="str">
-        <v>Darren Bacon</v>
+        <v>Andrea Dougall</v>
       </c>
       <c r="C7" t="str">
-        <v>Mourant</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D7" t="str">
-        <v>Bermuda</v>
+        <v>the UAE</v>
       </c>
       <c r="E7" t="str">
-        <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D7,P7:Q255,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G7" t="str">
-        <v>darren.bacon@mourant.com</v>
+        <v>andrea.dougall@morganlewis.com</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -628,25 +620,23 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ray</v>
+        <v>Charles</v>
       </c>
       <c r="B8" t="str">
-        <v>Ray Bu</v>
+        <v>Charles Dauthier</v>
       </c>
       <c r="C8" t="str">
-        <v>Fangda Partners</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D8" t="str">
-        <v>Hong Kong</v>
+        <v>France</v>
       </c>
       <c r="E8" t="str">
-        <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D8,P8:Q256,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G8" t="str">
-        <v>rui.bu@fangdalaw.com</v>
+        <v>charles.dauthier@morganlewis.com</v>
       </c>
       <c r="P8" t="str">
         <v>Argentina</v>
@@ -660,25 +650,12 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Oliver</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Oliver Von Schiller</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ecija</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Spain</v>
+        <f>PROPER(IFERROR(LEFT(B9,FIND(" ",B9)-1),B9))</f>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v>ovonschiller@ecija.com</v>
+        <f>IFERROR(VLOOKUP(D9,P9:Q257,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -692,25 +669,12 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Thomas</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Thomas Christner</v>
-      </c>
-      <c r="C10" t="str">
-        <v>GÖRG</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Germany</v>
+        <f>PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</f>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v>tchristner@goerg.de</v>
+        <f>IFERROR(VLOOKUP(D10,P10:Q258,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -724,25 +688,23 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Dali</v>
+        <v>Omar</v>
       </c>
       <c r="B11" t="str">
-        <v>Dali Al Habboub</v>
+        <v>Omar Shah</v>
       </c>
       <c r="C11" t="str">
-        <v>Dentons</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D11" t="str">
-        <v>Oman</v>
+        <v>Belgium</v>
       </c>
       <c r="E11" t="str">
-        <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D11,P11:Q259,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G11" t="str">
-        <v>dali.alhabboub@dentons.com</v>
+        <v>omar.shah@morganlewis.com</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -756,25 +718,23 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shantanu</v>
+        <v>Sebastian</v>
       </c>
       <c r="B12" t="str">
-        <v>Shantanu Sahay</v>
+        <v>Sebastian Dexheimer</v>
       </c>
       <c r="C12" t="str">
-        <v>Anand And Anand</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D12" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="E12" t="str">
-        <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D12,P12:Q260,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G12" t="str">
-        <v>shantanu@anandandanand.com</v>
+        <v>sebastian.dexheimer@morganlewis.com</v>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -788,25 +748,23 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Alon</v>
+        <v>Walter</v>
       </c>
       <c r="B13" t="str">
-        <v>Alon Anava</v>
+        <v>Walter Ahrens</v>
       </c>
       <c r="C13" t="str">
-        <v>Barnea And Co</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D13" t="str">
-        <v>Israel</v>
+        <v>Germany</v>
       </c>
       <c r="E13" t="str">
-        <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F13" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D13,P13:Q261,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G13" t="str">
-        <v>aanava@barlaw.co.il</v>
+        <v>walter.ahrens@morganlewis.com</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -820,25 +778,23 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Tobias</v>
+        <v>Merryn</v>
       </c>
       <c r="B14" t="str">
-        <v>Tobias Edenman</v>
+        <v>Merryn Craske</v>
       </c>
       <c r="C14" t="str">
-        <v>Magnusson Law</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D14" t="str">
-        <v>Sweden</v>
+        <v>England</v>
       </c>
       <c r="E14" t="str">
-        <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F14" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D14,P14:Q262,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G14" t="str">
-        <v>tobias.edenman@magnussonlaw.com</v>
+        <v>merryn.craske@morganlewis.com</v>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -852,25 +808,12 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Joanna</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Joanna Dimmock</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Paul Hastings</v>
-      </c>
-      <c r="D15" t="str">
-        <v>England</v>
+        <f>PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</f>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v>joannadimmock@paulhastings.com</v>
+        <f>IFERROR(VLOOKUP(D15,P15:Q263,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -884,25 +827,23 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Anurag</v>
+        <v>Vishnu</v>
       </c>
       <c r="B16" t="str">
-        <v>Anurag Shrivastav</v>
+        <v>Vishnu Shankar</v>
       </c>
       <c r="C16" t="str">
-        <v>JSA</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D16" t="str">
-        <v>India</v>
+        <v>Belgium</v>
       </c>
       <c r="E16" t="str">
-        <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F16" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D16,P16:Q264,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G16" t="str">
-        <v>anurag.shrivastav@jsalaw.com</v>
+        <v>vishnu.shankar@morganlewis.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -916,25 +857,23 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Feng</v>
+        <v>Carter</v>
       </c>
       <c r="B17" t="str">
-        <v>Feng Tao</v>
+        <v>Carter Brod</v>
       </c>
       <c r="C17" t="str">
-        <v>Longan Law</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D17" t="str">
-        <v>China</v>
+        <v>England</v>
       </c>
       <c r="E17" t="str">
-        <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F17" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D17,P17:Q265,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G17" t="str">
-        <v>fengtao@longanlaw.com</v>
+        <v>carter.brod@morganlewis.com</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -948,25 +887,23 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Gina</v>
+        <v>Tadao</v>
       </c>
       <c r="B18" t="str">
-        <v>Gina Phillipps Black</v>
+        <v>Tadao Horibe</v>
       </c>
       <c r="C18" t="str">
-        <v>Myers Fletcher And Gordon</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D18" t="str">
-        <v>Jamaica</v>
+        <v>Japan</v>
       </c>
       <c r="E18" t="str">
-        <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D18,P18:Q266,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G18" t="str">
-        <v>gina.black@mfg.com.jm</v>
+        <v>tadao.horibe@morganlewis.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -980,25 +917,23 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kaichang</v>
+        <v>Joo</v>
       </c>
       <c r="B19" t="str">
-        <v>Kaichang Zhou</v>
+        <v>Joo Khin Ng</v>
       </c>
       <c r="C19" t="str">
-        <v>Huiye Law</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D19" t="str">
-        <v>China</v>
+        <v>Singapore</v>
       </c>
       <c r="E19" t="str">
-        <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F19" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D19,P19:Q267,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G19" t="str">
-        <v>kaichang.zhou@huiyelaw.com</v>
+        <v>jookhin.ng@morganlewis.com</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -1012,25 +947,23 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jun</v>
+        <v>James</v>
       </c>
       <c r="B20" t="str">
-        <v>Jun Hee Kim</v>
+        <v>James P Bradley</v>
       </c>
       <c r="C20" t="str">
-        <v>Arnold And Porter</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D20" t="str">
-        <v>Korea (South)</v>
+        <v>Singapore</v>
       </c>
       <c r="E20" t="str">
-        <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D20,P20:Q268,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G20" t="str">
-        <v>jh.kim@arnoldporter.com</v>
+        <v>james.bradley@morganlewis.com</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -1044,25 +977,23 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Alexander</v>
+        <v>Dhouha</v>
       </c>
       <c r="B21" t="str">
-        <v>Alexander Duisberg</v>
+        <v>Dhouha Allagui</v>
       </c>
       <c r="C21" t="str">
-        <v>Ashurst</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D21" t="str">
-        <v>Germany</v>
+        <v>Tunisia</v>
       </c>
       <c r="E21" t="str">
-        <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F21" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D21,P21:Q269,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G21" t="str">
-        <v>alexander.duisberg@ashurst.com</v>
+        <v>d.allagui@giambronelaw.com</v>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1076,25 +1007,23 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Tero</v>
+        <v>Aset</v>
       </c>
       <c r="B22" t="str">
-        <v>Tero Kovanen</v>
+        <v>Aset Shyngyssov</v>
       </c>
       <c r="C22" t="str">
-        <v>Borenius</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D22" t="str">
-        <v>Finland</v>
+        <v>Kazakhstan</v>
       </c>
       <c r="E22" t="str">
-        <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D22,P22:Q270,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G22" t="str">
-        <v>tero.kovanen@borenius.com</v>
+        <v>aset.shyngyssov@morganlewis.com</v>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1108,25 +1037,23 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Fred</v>
+        <v>Ulrich</v>
       </c>
       <c r="B23" t="str">
-        <v>Fred Phillips</v>
+        <v>Ulrich Korth</v>
       </c>
       <c r="C23" t="str">
-        <v>Lex Caribbean</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D23" t="str">
-        <v>Caribe</v>
+        <v>Germany</v>
       </c>
       <c r="E23" t="str">
-        <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F23" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D23,P23:Q271,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G23" t="str">
-        <v>fred.phillips@bb.lexcaribbean.com</v>
+        <v>ulrich.korth@morganlewis.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1140,25 +1067,23 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Grainne</v>
+        <v>Jitsuro</v>
       </c>
       <c r="B24" t="str">
-        <v>Grainne Callanan</v>
+        <v>Jitsuro Morishita</v>
       </c>
       <c r="C24" t="str">
-        <v>Matheson</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D24" t="str">
-        <v>Ireland</v>
+        <v>Japan</v>
       </c>
       <c r="E24" t="str">
-        <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D24,P24:Q272,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G24" t="str">
-        <v>grainne.callanan@matheson.com</v>
+        <v>jitsuro.morishita@morganlewis.com</v>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1172,25 +1097,23 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Sebastiano</v>
+        <v>Bellavista</v>
       </c>
       <c r="B25" t="str">
-        <v>Sebastiano Cassani</v>
+        <v>M Bellavista *****</v>
       </c>
       <c r="C25" t="str">
-        <v>Pedersoli</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D25" t="str">
-        <v>Italy</v>
+        <v>Not Found</v>
       </c>
       <c r="E25" t="str">
-        <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D25,P25:Q273,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G25" t="str">
-        <v>cassani@pglex.it</v>
+        <v>m.bellavista@giambronelaw.com?subject=email%20from%20website:</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1204,25 +1127,23 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Qiuzhao</v>
+        <v>Bingna</v>
       </c>
       <c r="B26" t="str">
-        <v>Qiuzhao Wang</v>
+        <v>Bingna Guo</v>
       </c>
       <c r="C26" t="str">
-        <v>TC Law Firm</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D26" t="str">
-        <v>Hong Kong</v>
+        <v>China</v>
       </c>
       <c r="E26" t="str">
-        <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F26" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D26,P26:Q274,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G26" t="str">
-        <v>wqc@tclawfirm.com</v>
+        <v>bingna.guo@morganlewis.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1236,25 +1157,23 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Clinton</v>
+        <v>Xavier</v>
       </c>
       <c r="B27" t="str">
-        <v>Clinton Hempel</v>
+        <v>Xavier Haranger</v>
       </c>
       <c r="C27" t="str">
-        <v>Carey Olsen</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D27" t="str">
-        <v>Dominican Republic</v>
+        <v>France</v>
       </c>
       <c r="E27" t="str">
-        <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D27,P27:Q275,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G27" t="str">
-        <v>clinton.hempel@careyolsen.com</v>
+        <v>xavier.haranger@morganlewis.com</v>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1268,25 +1187,12 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Andrew</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Andrew Feighery</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Byrne Wallace</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Ireland</v>
+        <f>PROPER(IFERROR(LEFT(B28,FIND(" ",B28)-1),B28))</f>
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v>afeighery@byrnewallace.com</v>
+        <f>IFERROR(VLOOKUP(D28,P28:Q276,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1300,25 +1206,23 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Blazej</v>
+        <v>Foreste</v>
       </c>
       <c r="B29" t="str">
-        <v>Blazej Czwarnok</v>
+        <v>C Foreste *****</v>
       </c>
       <c r="C29" t="str">
-        <v>Gide Loyrette Nouel</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D29" t="str">
-        <v>Poland</v>
+        <v>Not Found</v>
       </c>
       <c r="E29" t="str">
-        <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F29" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D29,P29:Q277,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G29" t="str">
-        <v>blazej.czwarnok@gide.com</v>
+        <v>c.foreste@giambronelaw.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1332,25 +1236,12 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Jacob</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Jacob MøLler</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Kromann Reumert</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Denmark</v>
+        <f>PROPER(IFERROR(LEFT(B30,FIND(" ",B30)-1),B30))</f>
+        <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v>jmo@kromannreumert.com</v>
+        <f>IFERROR(VLOOKUP(D30,P30:Q278,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1364,25 +1255,23 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Chen</v>
+        <v>Olivier</v>
       </c>
       <c r="B31" t="str">
-        <v>Chen Fayun</v>
+        <v>Olivier Chambord</v>
       </c>
       <c r="C31" t="str">
-        <v>Grandall</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D31" t="str">
-        <v>China</v>
+        <v>France</v>
       </c>
       <c r="E31" t="str">
-        <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F31" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D31,P31:Q279,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G31" t="str">
-        <v>chenfayun@grandall.com.cn</v>
+        <v>olivier.chambord@morganlewis.com</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1396,25 +1285,23 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gao</v>
+        <v>George</v>
       </c>
       <c r="B32" t="str">
-        <v>Gao Mingyue</v>
+        <v>George Cyriac</v>
       </c>
       <c r="C32" t="str">
-        <v>Guantao Law Firm</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D32" t="str">
-        <v>China</v>
+        <v>Singapore</v>
       </c>
       <c r="E32" t="str">
-        <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D32,P32:Q280,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G32" t="str">
-        <v>gaomy@guantao.com</v>
+        <v>george.cyriac@morganlewis.com</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1428,25 +1315,23 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Heidi</v>
+        <v>Mark</v>
       </c>
       <c r="B33" t="str">
-        <v>Heidi Lee</v>
+        <v>Mark J Gilligan</v>
       </c>
       <c r="C33" t="str">
-        <v>Howse Williams</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D33" t="str">
-        <v>Hong Kong</v>
+        <v>the UAE</v>
       </c>
       <c r="E33" t="str">
-        <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D33,P33:Q281,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G33" t="str">
-        <v>heidi.lee@howsewilliams.com</v>
+        <v>mark.gilligan@morganlewis.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1460,25 +1345,23 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Anna</v>
+        <v>Lesli</v>
       </c>
       <c r="B34" t="str">
-        <v>Anna Kois-Mizgier</v>
+        <v>K Lesli Ligorner</v>
       </c>
       <c r="C34" t="str">
-        <v>BNT</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D34" t="str">
-        <v>Poland</v>
+        <v>China</v>
       </c>
       <c r="E34" t="str">
-        <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F34" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D34,P34:Q282,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G34" t="str">
-        <v>anna.kois-mizgier@bnt.eu</v>
+        <v>lesli.ligorner@morganlewis.com</v>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1492,25 +1375,23 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Yahal</v>
+        <v>Olu</v>
       </c>
       <c r="B35" t="str">
-        <v>Yahal Baumel</v>
+        <v>Olu Ajasa</v>
       </c>
       <c r="C35" t="str">
-        <v>Aron Tadmor Levy</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D35" t="str">
-        <v>Israel</v>
+        <v>England</v>
       </c>
       <c r="E35" t="str">
-        <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D35,P35:Q283,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G35" t="str">
-        <v>yahal@arnontl.com</v>
+        <v>o.ajasa@giambronelaw.com</v>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1524,25 +1405,23 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Rodrigo</v>
+        <v>Mathew</v>
       </c>
       <c r="B36" t="str">
-        <v>Rodrigo Boccioletti</v>
+        <v>Mathew Lewis</v>
       </c>
       <c r="C36" t="str">
-        <v>Gianni And Origoni</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D36" t="str">
-        <v>Italy</v>
+        <v>China</v>
       </c>
       <c r="E36" t="str">
-        <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F36" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D36,P36:Q284,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G36" t="str">
-        <v>rboccioletti@gop.it</v>
+        <v>mathew.lewis@morganlewis.com</v>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1556,25 +1435,23 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Meir</v>
+        <v>Jitsuro</v>
       </c>
       <c r="B37" t="str">
-        <v>Meir Dominitz</v>
+        <v>Jitsuro Morishita</v>
       </c>
       <c r="C37" t="str">
-        <v>Gornitzky And Co</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D37" t="str">
-        <v>Israel</v>
+        <v>Japan</v>
       </c>
       <c r="E37" t="str">
-        <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D37,P37:Q285,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G37" t="str">
-        <v>meird@gornitzky.com</v>
+        <v>jitsuro.morishita@morganlewis.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1588,25 +1465,23 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Artur</v>
+        <v>Pardeep</v>
       </c>
       <c r="B38" t="str">
-        <v>Artur Bunk</v>
+        <v>Pardeep Singh Khosa</v>
       </c>
       <c r="C38" t="str">
-        <v>Spencer West</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D38" t="str">
-        <v>Germany</v>
+        <v>Singapore</v>
       </c>
       <c r="E38" t="str">
-        <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F38" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D38,P38:Q286,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G38" t="str">
-        <v>artur.bunk@spencer-west.com</v>
+        <v>pardeep.khosa@morganlewis.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1620,25 +1495,23 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Hagit</v>
+        <v>Mark</v>
       </c>
       <c r="B39" t="str">
-        <v>Hagit Avrahami</v>
+        <v>Mark J Gilligan</v>
       </c>
       <c r="C39" t="str">
-        <v>Meitar Law Offices</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D39" t="str">
-        <v>Israel</v>
+        <v>the UAE</v>
       </c>
       <c r="E39" t="str">
-        <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F39" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D39,P39:Q287,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G39" t="str">
-        <v>hagita@meitar.com</v>
+        <v>mark.gilligan@morganlewis.com</v>
       </c>
       <c r="P39" t="str">
         <v>Central African Republic</v>
@@ -1652,25 +1525,12 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Martin</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Martin Pearse</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Keystone Law</v>
-      </c>
-      <c r="D40" t="str">
-        <v>England</v>
+        <f>PROPER(IFERROR(LEFT(B40,FIND(" ",B40)-1),B40))</f>
+        <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F40" t="str">
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <v>martin.pearse@keystonelaw.co.uk</v>
+        <f>IFERROR(VLOOKUP(D40,P40:Q288,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1684,25 +1544,23 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Oskar</v>
+        <v>Charles</v>
       </c>
       <c r="B41" t="str">
-        <v>Oskar SigurðSson</v>
+        <v>Charles Dauthier</v>
       </c>
       <c r="C41" t="str">
-        <v>LEX Logmannsstofa</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D41" t="str">
-        <v>Iceland</v>
+        <v>France</v>
       </c>
       <c r="E41" t="str">
-        <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F41" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D41,P41:Q289,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G41" t="str">
-        <v>oskar@lex.is</v>
+        <v>charles.dauthier@morganlewis.com</v>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1716,25 +1574,12 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Satish</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Satish Srinivasan</v>
-      </c>
-      <c r="C42" t="str">
-        <v>ALMT Legal</v>
-      </c>
-      <c r="D42" t="str">
-        <v>India</v>
+        <f>PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</f>
+        <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F42" t="str">
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <v>ssrinivasan@almtlegal.com</v>
+        <f>IFERROR(VLOOKUP(D42,P42:Q290,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1748,25 +1593,23 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Bruno</v>
+        <v>Bouabidi</v>
       </c>
       <c r="B43" t="str">
-        <v>Bruno Bartocci</v>
+        <v>Z Bouabidi *****</v>
       </c>
       <c r="C43" t="str">
-        <v>Legance</v>
+        <v>Giambrone International Law Firm</v>
       </c>
       <c r="D43" t="str">
-        <v>Italy</v>
+        <v>Not Found</v>
       </c>
       <c r="E43" t="str">
-        <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F43" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D43,P43:Q291,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G43" t="str">
-        <v>bbartocci@legance.it%20</v>
+        <v>z.bouabidi@giambronelaw.com?subject=email%20from%20website:</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1780,25 +1623,23 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jesper</v>
+        <v>Carolyn</v>
       </c>
       <c r="B44" t="str">
-        <v>Jesper HøJ Josefsen</v>
+        <v>Carolyn J D Abram</v>
       </c>
       <c r="C44" t="str">
-        <v>DahlLaw</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D44" t="str">
-        <v>Denmark</v>
+        <v>the UAE</v>
       </c>
       <c r="E44" t="str">
-        <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F44" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D44,P44:Q292,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G44" t="str">
-        <v>jhj@dahllaw.dk</v>
+        <v>carolyn.abram@morganlewis.com</v>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1812,25 +1653,12 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Juli</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Juli Mansnerus</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Dittmar And Indrenius</v>
-      </c>
-      <c r="D45" t="str">
-        <v>Finland</v>
+        <f>PROPER(IFERROR(LEFT(B45,FIND(" ",B45)-1),B45))</f>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v>juli.mansnerus@dittmar.fi</v>
+        <f>IFERROR(VLOOKUP(D45,P45:Q293,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1844,25 +1672,23 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Paul</v>
+        <v>Nick</v>
       </c>
       <c r="B46" t="str">
-        <v>Paul Nettleship *****</v>
+        <v>Nick Bolter</v>
       </c>
       <c r="C46" t="str">
-        <v>Collas Crill</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D46" t="str">
-        <v>Bermuda</v>
+        <v>England</v>
       </c>
       <c r="E46" t="str">
-        <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F46" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D46,P46:Q294,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G46" t="str">
-        <v>paul.nettleship@collascrill.com</v>
+        <v>nick.bolter@morganlewis.com</v>
       </c>
       <c r="P46" t="str">
         <v>Costa Rica</v>
@@ -1876,28 +1702,26 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tristan</v>
+        <v>Timothy</v>
       </c>
       <c r="B47" t="str">
-        <v>Tristan Ozanne</v>
+        <v>Timothy J Corbett</v>
       </c>
       <c r="C47" t="str">
-        <v>Appleby Global</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D47" t="str">
-        <v>Bermuda</v>
+        <v>England</v>
       </c>
       <c r="E47" t="str">
-        <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F47" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D47,P47:Q295,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G47" t="str">
-        <v>tozanne@applebyglobal.com</v>
+        <v>timothy.corbett@morganlewis.com</v>
       </c>
       <c r="P47" t="str">
-        <v>Cote D&amp;apos;ivoire</v>
+        <v>Cote D'ivoire</v>
       </c>
       <c r="Q47" t="str">
         <v>Ivorian</v>
@@ -1908,25 +1732,23 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Amir</v>
+        <v>Vishnu</v>
       </c>
       <c r="B48" t="str">
-        <v>Amir Chen</v>
+        <v>Vishnu Shankar</v>
       </c>
       <c r="C48" t="str">
-        <v>Fischer</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D48" t="str">
-        <v>Israel</v>
+        <v>Belgium</v>
       </c>
       <c r="E48" t="str">
-        <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F48" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D48,P48:Q296,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G48" t="str">
-        <v>achen@fbclawyers.com</v>
+        <v>vishnu.shankar@morganlewis.com</v>
       </c>
       <c r="P48" t="str">
         <v>Croatia</v>
@@ -1940,25 +1762,12 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Tal</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Tal Alon</v>
-      </c>
-      <c r="C49" t="str">
-        <v>EBN</v>
-      </c>
-      <c r="D49" t="str">
-        <v>Israel</v>
+        <f>PROPER(IFERROR(LEFT(B49,FIND(" ",B49)-1),B49))</f>
+        <v>0</v>
       </c>
       <c r="E49" t="str">
-        <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <v>tala@ebnlaw.co.il</v>
+        <f>IFERROR(VLOOKUP(D49,P49:Q297,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1972,25 +1781,23 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Grainne</v>
+        <v>Tomoko</v>
       </c>
       <c r="B50" t="str">
-        <v>Grainne King</v>
+        <v>Tomoko Fuminaga</v>
       </c>
       <c r="C50" t="str">
-        <v>Harneys</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D50" t="str">
-        <v>Cayman Islands</v>
+        <v>Japan</v>
       </c>
       <c r="E50" t="str">
-        <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F50" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D50,P50:Q298,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G50" t="str">
-        <v>grainne.king@harneys.com</v>
+        <v>tomoko.fuminaga@morganlewis.com</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -2004,25 +1811,12 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Alfred</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Alfred Hennemann</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Meyer Köring</v>
-      </c>
-      <c r="D51" t="str">
-        <v>Denmark</v>
+        <f>PROPER(IFERROR(LEFT(B51,FIND(" ",B51)-1),B51))</f>
+        <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F51" t="str">
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <v>hennemann@meyer-koering.de</v>
+        <f>IFERROR(VLOOKUP(D51,P51:Q299,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -2036,25 +1830,23 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Katalin</v>
+        <v>Alexandre</v>
       </c>
       <c r="B52" t="str">
-        <v>Katalin Grosz</v>
+        <v>Alexandre Bailly</v>
       </c>
       <c r="C52" t="str">
-        <v>Szecskay</v>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D52" t="str">
-        <v>Hungary</v>
+        <v>France</v>
       </c>
       <c r="E52" t="str">
-        <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
-      </c>
-      <c r="F52" t="str">
-        <v/>
+        <f>IFERROR(VLOOKUP(D52,P52:Q300,2,FALSE),"Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="G52" t="str">
-        <v>katalin.grosz@szecskay.com</v>
+        <v>alexandre.bailly@morganlewis.com</v>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -440,23 +440,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Asem</v>
+        <v>Tusha</v>
       </c>
       <c r="B2" t="str">
-        <v>Asem B Bakenova</v>
+        <v>Tusha Malhotra</v>
       </c>
       <c r="C2" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Anand And Anand</v>
       </c>
       <c r="D2" t="str">
-        <v>Kazakhstan</v>
+        <v>India</v>
       </c>
       <c r="E2" t="str">
-        <f>IFERROR(VLOOKUP(D2,P2:Q250,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D2,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>asem.bakenova@morganlewis.com</v>
+        <v>tusha@anandandanand.com</v>
       </c>
       <c r="P2" t="str">
         <v>Afghanistan</v>
@@ -470,23 +472,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Bianco</v>
+        <v>=PROPER(IFERROR(LEFT(B3,FIND(" ",B3)-1),B3))</v>
       </c>
       <c r="B3" t="str">
-        <v>G Bianco *****</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Not Found</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <f>IFERROR(VLOOKUP(D3,P3:Q251,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>g.bianco@giambronelaw.com?subject=email%20from%20website:</v>
+        <v/>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -500,23 +504,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Connie</v>
+        <v>David</v>
       </c>
       <c r="B4" t="str">
-        <v>Connie Cheung</v>
+        <v>David Ohanlon *****</v>
       </c>
       <c r="C4" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Collas Crill</v>
       </c>
       <c r="D4" t="str">
-        <v>China</v>
+        <v>Bermuda</v>
       </c>
       <c r="E4" t="str">
-        <f>IFERROR(VLOOKUP(D4,P4:Q252,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D4,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>connie.cheung@morganlewis.com</v>
+        <v>david.ohanlon@collascrill.com</v>
       </c>
       <c r="P4" t="str">
         <v>Algeria</v>
@@ -530,23 +536,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Christina</v>
+        <v>=PROPER(IFERROR(LEFT(B5,FIND(" ",B5)-1),B5))</v>
       </c>
       <c r="B5" t="str">
-        <v>Christina Renner</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>Belgium</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <f>IFERROR(VLOOKUP(D5,P5:Q253,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v>christina.renner@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -560,23 +568,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Daja</v>
+        <v>=PROPER(IFERROR(LEFT(B6,FIND(" ",B6)-1),B6))</v>
       </c>
       <c r="B6" t="str">
-        <v>Daja Apetz-Dreier</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <f>IFERROR(VLOOKUP(D6,P6:Q254,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>daja.apetz-dreier@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -590,23 +600,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Andrea</v>
+        <v>Robert</v>
       </c>
       <c r="B7" t="str">
-        <v>Andrea Dougall</v>
+        <v>Robert Bauer</v>
       </c>
       <c r="C7" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Taylor Wessing</v>
       </c>
       <c r="D7" t="str">
-        <v>the UAE</v>
+        <v>Germany</v>
       </c>
       <c r="E7" t="str">
-        <f>IFERROR(VLOOKUP(D7,P7:Q255,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D7,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>andrea.dougall@morganlewis.com</v>
+        <v>robert.bauer@taylorwessing.com</v>
       </c>
       <c r="P7" t="str">
         <v>Antigua and Barbuda</v>
@@ -620,23 +632,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Charles</v>
+        <v>Lorinda</v>
       </c>
       <c r="B8" t="str">
-        <v>Charles Dauthier</v>
+        <v>Lorinda Peasland</v>
       </c>
       <c r="C8" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Appleby Global</v>
       </c>
       <c r="D8" t="str">
-        <v>France</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E8" t="str">
-        <f>IFERROR(VLOOKUP(D8,P8:Q256,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D8,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>charles.dauthier@morganlewis.com</v>
+        <v>lpeasland@applebyglobal.com</v>
       </c>
       <c r="P8" t="str">
         <v>Argentina</v>
@@ -650,12 +664,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <f>PROPER(IFERROR(LEFT(B9,FIND(" ",B9)-1),B9))</f>
-        <v>0</v>
+        <v>Christopher</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Christopher Kelly</v>
+      </c>
+      <c r="C9" t="str">
+        <v>White and Case</v>
+      </c>
+      <c r="D9" t="str">
+        <v>China</v>
       </c>
       <c r="E9" t="str">
-        <f>IFERROR(VLOOKUP(D9,P9:Q257,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D9,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>christopher.kelly@whitecase.com</v>
       </c>
       <c r="P9" t="str">
         <v>Armenia</v>
@@ -669,12 +696,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <f>PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</f>
-        <v>0</v>
+        <v>=PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
       </c>
       <c r="E10" t="str">
-        <f>IFERROR(VLOOKUP(D10,P10:Q258,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -688,23 +728,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Omar</v>
+        <v>Paul</v>
       </c>
       <c r="B11" t="str">
-        <v>Omar Shah</v>
+        <v>Paul Scrivener</v>
       </c>
       <c r="C11" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Conyers</v>
       </c>
       <c r="D11" t="str">
-        <v>Belgium</v>
+        <v>Cayman Islands</v>
       </c>
       <c r="E11" t="str">
-        <f>IFERROR(VLOOKUP(D11,P11:Q259,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D11,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>omar.shah@morganlewis.com</v>
+        <v>paul.scrivener@conyers.com</v>
       </c>
       <c r="P11" t="str">
         <v>Australia</v>
@@ -718,23 +760,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sebastian</v>
+        <v>=PROPER(IFERROR(LEFT(B12,FIND(" ",B12)-1),B12))</v>
       </c>
       <c r="B12" t="str">
-        <v>Sebastian Dexheimer</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <f>IFERROR(VLOOKUP(D12,P12:Q260,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>sebastian.dexheimer@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -748,23 +792,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Walter</v>
+        <v>=PROPER(IFERROR(LEFT(B13,FIND(" ",B13)-1),B13))</v>
       </c>
       <c r="B13" t="str">
-        <v>Walter Ahrens</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <f>IFERROR(VLOOKUP(D13,P13:Q261,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>walter.ahrens@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -778,23 +824,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Merryn</v>
+        <v>Avrumi</v>
       </c>
       <c r="B14" t="str">
-        <v>Merryn Craske</v>
+        <v>Avrumi Monderer</v>
       </c>
       <c r="C14" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>KRB Law Firm</v>
       </c>
       <c r="D14" t="str">
-        <v>England</v>
+        <v>Israel</v>
       </c>
       <c r="E14" t="str">
-        <f>IFERROR(VLOOKUP(D14,P14:Q262,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D14,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>merryn.craske@morganlewis.com</v>
+        <v>avrumim@krb.law</v>
       </c>
       <c r="P14" t="str">
         <v>Bahamas</v>
@@ -808,12 +856,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <f>PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</f>
-        <v>0</v>
+        <v>=PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
       </c>
       <c r="E15" t="str">
-        <f>IFERROR(VLOOKUP(D15,P15:Q263,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -827,23 +888,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Vishnu</v>
+        <v>=PROPER(IFERROR(LEFT(B16,FIND(" ",B16)-1),B16))</v>
       </c>
       <c r="B16" t="str">
-        <v>Vishnu Shankar</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>Belgium</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <f>IFERROR(VLOOKUP(D16,P16:Q264,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>vishnu.shankar@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -857,23 +920,25 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Carter</v>
+        <v>=PROPER(IFERROR(LEFT(B17,FIND(" ",B17)-1),B17))</v>
       </c>
       <c r="B17" t="str">
-        <v>Carter Brod</v>
+        <v/>
       </c>
       <c r="C17" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <f>IFERROR(VLOOKUP(D17,P17:Q265,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>carter.brod@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -887,23 +952,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tadao</v>
+        <v>Sonja</v>
       </c>
       <c r="B18" t="str">
-        <v>Tadao Horibe</v>
+        <v>Sonja Siggberg</v>
       </c>
       <c r="C18" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Hannes Snellman</v>
       </c>
       <c r="D18" t="str">
-        <v>Japan</v>
+        <v>Finland</v>
       </c>
       <c r="E18" t="str">
-        <f>IFERROR(VLOOKUP(D18,P18:Q266,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D18,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>tadao.horibe@morganlewis.com</v>
+        <v>sonja.siggberg@hannessnellman.com</v>
       </c>
       <c r="P18" t="str">
         <v>Belarus</v>
@@ -917,23 +984,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Joo</v>
+        <v>Jacob</v>
       </c>
       <c r="B19" t="str">
-        <v>Joo Khin Ng</v>
+        <v>Jacob øLgaard</v>
       </c>
       <c r="C19" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Kromann Reumert</v>
       </c>
       <c r="D19" t="str">
-        <v>Singapore</v>
+        <v>Denmark</v>
       </c>
       <c r="E19" t="str">
-        <f>IFERROR(VLOOKUP(D19,P19:Q267,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D19,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>jookhin.ng@morganlewis.com</v>
+        <v>jco@kromannreumert.com</v>
       </c>
       <c r="P19" t="str">
         <v>Belgium</v>
@@ -947,23 +1016,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>James</v>
+        <v>Olivier</v>
       </c>
       <c r="B20" t="str">
-        <v>James P Bradley</v>
+        <v>Olivier Dauchez</v>
       </c>
       <c r="C20" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Gide Loyrette Nouel</v>
       </c>
       <c r="D20" t="str">
-        <v>Singapore</v>
+        <v>France</v>
       </c>
       <c r="E20" t="str">
-        <f>IFERROR(VLOOKUP(D20,P20:Q268,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D20,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>james.bradley@morganlewis.com</v>
+        <v>dauchez@gide.com</v>
       </c>
       <c r="P20" t="str">
         <v>Belize</v>
@@ -977,23 +1048,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Dhouha</v>
+        <v>Kanisha</v>
       </c>
       <c r="B21" t="str">
-        <v>Dhouha Allagui</v>
+        <v>Kanisha Vora</v>
       </c>
       <c r="C21" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v>Veritas Legal</v>
       </c>
       <c r="D21" t="str">
-        <v>Tunisia</v>
+        <v>India</v>
       </c>
       <c r="E21" t="str">
-        <f>IFERROR(VLOOKUP(D21,P21:Q269,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D21,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>d.allagui@giambronelaw.com</v>
+        <v>kanisha.vora@veritaslegal.in</v>
       </c>
       <c r="P21" t="str">
         <v>Benin</v>
@@ -1007,23 +1080,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Aset</v>
+        <v>James</v>
       </c>
       <c r="B22" t="str">
-        <v>Aset Shyngyssov</v>
+        <v>James Denham</v>
       </c>
       <c r="C22" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Walkers</v>
       </c>
       <c r="D22" t="str">
-        <v>Kazakhstan</v>
+        <v>England</v>
       </c>
       <c r="E22" t="str">
-        <f>IFERROR(VLOOKUP(D22,P22:Q270,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D22,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>aset.shyngyssov@morganlewis.com</v>
+        <v>james.denham@walkersglobal.com</v>
       </c>
       <c r="P22" t="str">
         <v>Bermuda</v>
@@ -1037,23 +1112,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Ulrich</v>
+        <v>=PROPER(IFERROR(LEFT(B23,FIND(" ",B23)-1),B23))</v>
       </c>
       <c r="B23" t="str">
-        <v>Ulrich Korth</v>
+        <v/>
       </c>
       <c r="C23" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <f>IFERROR(VLOOKUP(D23,P23:Q271,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>ulrich.korth@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1067,23 +1144,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Jitsuro</v>
+        <v>Hagit</v>
       </c>
       <c r="B24" t="str">
-        <v>Jitsuro Morishita</v>
+        <v>Hagit Bavly</v>
       </c>
       <c r="C24" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Aron Tadmor Levy</v>
       </c>
       <c r="D24" t="str">
-        <v>Japan</v>
+        <v>Israel</v>
       </c>
       <c r="E24" t="str">
-        <f>IFERROR(VLOOKUP(D24,P24:Q272,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D24,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>jitsuro.morishita@morganlewis.com</v>
+        <v>hagit@arnontl.com</v>
       </c>
       <c r="P24" t="str">
         <v>Bolivia</v>
@@ -1097,23 +1176,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Bellavista</v>
+        <v>Jesper</v>
       </c>
       <c r="B25" t="str">
-        <v>M Bellavista *****</v>
+        <v>Jesper HøY</v>
       </c>
       <c r="C25" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v>DahlLaw</v>
       </c>
       <c r="D25" t="str">
-        <v>Not Found</v>
+        <v>Denmark</v>
       </c>
       <c r="E25" t="str">
-        <f>IFERROR(VLOOKUP(D25,P25:Q273,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D25,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>m.bellavista@giambronelaw.com?subject=email%20from%20website:</v>
+        <v>jeh@dahllaw.dk</v>
       </c>
       <c r="P25" t="str">
         <v>Bosnia Herzegovina</v>
@@ -1127,23 +1208,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Bingna</v>
+        <v>Chaobo</v>
       </c>
       <c r="B26" t="str">
-        <v>Bingna Guo</v>
+        <v>Chaobo Fan</v>
       </c>
       <c r="C26" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Paul Hastings</v>
       </c>
       <c r="D26" t="str">
-        <v>China</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E26" t="str">
-        <f>IFERROR(VLOOKUP(D26,P26:Q274,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D26,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>bingna.guo@morganlewis.com</v>
+        <v>chaobofan@paulhastings.com</v>
       </c>
       <c r="P26" t="str">
         <v>Botswana</v>
@@ -1157,23 +1240,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Xavier</v>
+        <v>Amanda</v>
       </c>
       <c r="B27" t="str">
-        <v>Xavier Haranger</v>
+        <v>Amanda K Antons Ph D</v>
       </c>
       <c r="C27" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Dechert LLP</v>
       </c>
       <c r="D27" t="str">
-        <v>France</v>
+        <v>Dominican Republic</v>
       </c>
       <c r="E27" t="str">
-        <f>IFERROR(VLOOKUP(D27,P27:Q275,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D27,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v>xavier.haranger@morganlewis.com</v>
+        <v>amanda.antons@dechert.com</v>
       </c>
       <c r="P27" t="str">
         <v>Bouvet Island</v>
@@ -1187,12 +1272,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <f>PROPER(IFERROR(LEFT(B28,FIND(" ",B28)-1),B28))</f>
-        <v>0</v>
+        <v>Beth</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Beth Bradley</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Hill Dickinson</v>
+      </c>
+      <c r="D28" t="str">
+        <v>England</v>
       </c>
       <c r="E28" t="str">
-        <f>IFERROR(VLOOKUP(D28,P28:Q276,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D28,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>beth.bradley@hilldickinson.com</v>
       </c>
       <c r="P28" t="str">
         <v>Brazil</v>
@@ -1206,23 +1304,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Foreste</v>
+        <v>Alexandra</v>
       </c>
       <c r="B29" t="str">
-        <v>C Foreste *****</v>
+        <v>Alexandra Cloute</v>
       </c>
       <c r="C29" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v>Ashurst</v>
       </c>
       <c r="D29" t="str">
-        <v>Not Found</v>
+        <v>Luxembourg</v>
       </c>
       <c r="E29" t="str">
-        <f>IFERROR(VLOOKUP(D29,P29:Q277,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D29,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>c.foreste@giambronelaw.com</v>
+        <v>alexandra.cloute@ashurst.com</v>
       </c>
       <c r="P29" t="str">
         <v>British Virgin Islands</v>
@@ -1236,12 +1336,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <f>PROPER(IFERROR(LEFT(B30,FIND(" ",B30)-1),B30))</f>
-        <v>0</v>
+        <v>Elaine</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Elaine Healy</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Dillon Eustace</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Ireland</v>
       </c>
       <c r="E30" t="str">
-        <f>IFERROR(VLOOKUP(D30,P30:Q278,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D30,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>elaine.healy@dilloneustace.ie</v>
       </c>
       <c r="P30" t="str">
         <v>Brunei Darussalam</v>
@@ -1255,23 +1368,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Olivier</v>
+        <v>Harvinder</v>
       </c>
       <c r="B31" t="str">
-        <v>Olivier Chambord</v>
+        <v>Harvinder Singh</v>
       </c>
       <c r="C31" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>DSK Legal</v>
       </c>
       <c r="D31" t="str">
-        <v>France</v>
+        <v>India</v>
       </c>
       <c r="E31" t="str">
-        <f>IFERROR(VLOOKUP(D31,P31:Q279,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D31,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>olivier.chambord@morganlewis.com</v>
+        <v>harvinder.singh@dsklegal.com</v>
       </c>
       <c r="P31" t="str">
         <v>Bulgaria</v>
@@ -1285,23 +1400,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>George</v>
+        <v>Armando</v>
       </c>
       <c r="B32" t="str">
-        <v>George Cyriac</v>
+        <v>Armando Manzanares</v>
       </c>
       <c r="C32" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Consortium Legal</v>
       </c>
       <c r="D32" t="str">
-        <v>Singapore</v>
+        <v>Honduras</v>
       </c>
       <c r="E32" t="str">
-        <f>IFERROR(VLOOKUP(D32,P32:Q280,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D32,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v>george.cyriac@morganlewis.com</v>
+        <v>amanzanares@consortiumlegal.com</v>
       </c>
       <c r="P32" t="str">
         <v>Burkina Faso</v>
@@ -1315,23 +1432,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mark</v>
+        <v>James</v>
       </c>
       <c r="B33" t="str">
-        <v>Mark J Gilligan</v>
+        <v>James Kinsley</v>
       </c>
       <c r="C33" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Harneys</v>
       </c>
       <c r="D33" t="str">
-        <v>the UAE</v>
+        <v>England</v>
       </c>
       <c r="E33" t="str">
-        <f>IFERROR(VLOOKUP(D33,P33:Q281,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D33,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>mark.gilligan@morganlewis.com</v>
+        <v>james.kinsley@harneys.com</v>
       </c>
       <c r="P33" t="str">
         <v>Burundi</v>
@@ -1345,23 +1464,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Lesli</v>
+        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
       </c>
       <c r="B34" t="str">
-        <v>K Lesli Ligorner</v>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E34" t="str">
-        <f>IFERROR(VLOOKUP(D34,P34:Q282,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>lesli.ligorner@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1375,23 +1496,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Olu</v>
+        <v>James</v>
       </c>
       <c r="B35" t="str">
-        <v>Olu Ajasa</v>
+        <v>James Maccallum</v>
       </c>
       <c r="C35" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v>Al Tamimi</v>
       </c>
       <c r="D35" t="str">
-        <v>England</v>
+        <v>the UAE</v>
       </c>
       <c r="E35" t="str">
-        <f>IFERROR(VLOOKUP(D35,P35:Q283,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D35,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
       </c>
       <c r="G35" t="str">
-        <v>o.ajasa@giambronelaw.com</v>
+        <v>j.maccallum@tamimi.com</v>
       </c>
       <c r="P35" t="str">
         <v>Cameroon</v>
@@ -1405,23 +1528,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Mathew</v>
+        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
       </c>
       <c r="B36" t="str">
-        <v>Mathew Lewis</v>
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>China</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <f>IFERROR(VLOOKUP(D36,P36:Q284,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>mathew.lewis@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1435,23 +1560,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Jitsuro</v>
+        <v>=PROPER(IFERROR(LEFT(B37,FIND(" ",B37)-1),B37))</v>
       </c>
       <c r="B37" t="str">
-        <v>Jitsuro Morishita</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>Japan</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <f>IFERROR(VLOOKUP(D37,P37:Q285,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>jitsuro.morishita@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1465,23 +1592,25 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Pardeep</v>
+        <v>David</v>
       </c>
       <c r="B38" t="str">
-        <v>Pardeep Singh Khosa</v>
+        <v>David Jones</v>
       </c>
       <c r="C38" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Carey Olsen</v>
       </c>
       <c r="D38" t="str">
-        <v>Singapore</v>
+        <v>England</v>
       </c>
       <c r="E38" t="str">
-        <f>IFERROR(VLOOKUP(D38,P38:Q286,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D38,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
       </c>
       <c r="G38" t="str">
-        <v>pardeep.khosa@morganlewis.com</v>
+        <v>david.jones@careyolsen.com</v>
       </c>
       <c r="P38" t="str">
         <v>Cayman Islands</v>
@@ -1495,23 +1624,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mark</v>
+        <v>Aravind</v>
       </c>
       <c r="B39" t="str">
-        <v>Mark J Gilligan</v>
+        <v>Aravind Raj</v>
       </c>
       <c r="C39" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>JSA</v>
       </c>
       <c r="D39" t="str">
-        <v>the UAE</v>
+        <v>India</v>
       </c>
       <c r="E39" t="str">
-        <f>IFERROR(VLOOKUP(D39,P39:Q287,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D39,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>mark.gilligan@morganlewis.com</v>
+        <v>aravind.raj@jsalaw.com</v>
       </c>
       <c r="P39" t="str">
         <v>Central African Republic</v>
@@ -1523,14 +1654,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
-        <f>PROPER(IFERROR(LEFT(B40,FIND(" ",B40)-1),B40))</f>
-        <v>0</v>
+        <v>Vivienne</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vivienne M Gouthro
+Partner</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Higgs And Johnson</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Jamaica</v>
       </c>
       <c r="E40" t="str">
-        <f>IFERROR(VLOOKUP(D40,P40:Q288,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D40,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>vgouthro@higgsjohnson.com</v>
       </c>
       <c r="P40" t="str">
         <v>Chad</v>
@@ -1544,23 +1689,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Charles</v>
+        <v>Andrea</v>
       </c>
       <c r="B41" t="str">
-        <v>Charles Dauthier</v>
+        <v>Andrea Francesco Castelli</v>
       </c>
       <c r="C41" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Pedersoli</v>
       </c>
       <c r="D41" t="str">
-        <v>France</v>
+        <v>Italy</v>
       </c>
       <c r="E41" t="str">
-        <f>IFERROR(VLOOKUP(D41,P41:Q289,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D41,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>charles.dauthier@morganlewis.com</v>
+        <v>acastelli@pglex.it</v>
       </c>
       <c r="P41" t="str">
         <v>Chile</v>
@@ -1574,12 +1721,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <f>PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</f>
-        <v>0</v>
+        <v>=PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
       </c>
       <c r="E42" t="str">
-        <f>IFERROR(VLOOKUP(D42,P42:Q290,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1593,23 +1753,25 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Bouabidi</v>
+        <v>Shira</v>
       </c>
       <c r="B43" t="str">
-        <v>Z Bouabidi *****</v>
+        <v>Shira Azran</v>
       </c>
       <c r="C43" t="str">
-        <v>Giambrone International Law Firm</v>
+        <v>Meitar Law Offices</v>
       </c>
       <c r="D43" t="str">
-        <v>Not Found</v>
+        <v>Israel</v>
       </c>
       <c r="E43" t="str">
-        <f>IFERROR(VLOOKUP(D43,P43:Q291,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D43,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>z.bouabidi@giambronelaw.com?subject=email%20from%20website:</v>
+        <v>sazran@meitar.com</v>
       </c>
       <c r="P43" t="str">
         <v>Colombia</v>
@@ -1623,23 +1785,25 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Carolyn</v>
+        <v>Heidi</v>
       </c>
       <c r="B44" t="str">
-        <v>Carolyn J D Abram</v>
+        <v>Heidi Kivenjuuri</v>
       </c>
       <c r="C44" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Krogerus</v>
       </c>
       <c r="D44" t="str">
-        <v>the UAE</v>
+        <v>Finland</v>
       </c>
       <c r="E44" t="str">
-        <f>IFERROR(VLOOKUP(D44,P44:Q292,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D44,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>carolyn.abram@morganlewis.com</v>
+        <v>heidi.kivenjuuri@krogerus.com</v>
       </c>
       <c r="P44" t="str">
         <v>Congo</v>
@@ -1653,12 +1817,25 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <f>PROPER(IFERROR(LEFT(B45,FIND(" ",B45)-1),B45))</f>
-        <v>0</v>
+        <v>Matteo</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Matteo Bonelli</v>
+      </c>
+      <c r="C45" t="str">
+        <v>BonelliErede</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Italy</v>
       </c>
       <c r="E45" t="str">
-        <f>IFERROR(VLOOKUP(D45,P45:Q293,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D45,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>matteo.bonelli@belex.com</v>
       </c>
       <c r="P45" t="str">
         <v>Cook Islands</v>
@@ -1672,23 +1849,25 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nick</v>
+        <v>Marcin</v>
       </c>
       <c r="B46" t="str">
-        <v>Nick Bolter</v>
+        <v>Marcin Kroll</v>
       </c>
       <c r="C46" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>BNT</v>
       </c>
       <c r="D46" t="str">
-        <v>England</v>
+        <v>Poland</v>
       </c>
       <c r="E46" t="str">
-        <f>IFERROR(VLOOKUP(D46,P46:Q294,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D46,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
       </c>
       <c r="G46" t="str">
-        <v>nick.bolter@morganlewis.com</v>
+        <v>marcin.kroll@bnt.eu</v>
       </c>
       <c r="P46" t="str">
         <v>Costa Rica</v>
@@ -1702,23 +1881,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Timothy</v>
+        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
       </c>
       <c r="B47" t="str">
-        <v>Timothy J Corbett</v>
+        <v/>
       </c>
       <c r="C47" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>England</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <f>IFERROR(VLOOKUP(D47,P47:Q295,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>timothy.corbett@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P47" t="str">
         <v>Cote D'ivoire</v>
@@ -1732,23 +1913,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Vishnu</v>
+        <v>Robert</v>
       </c>
       <c r="B48" t="str">
-        <v>Vishnu Shankar</v>
+        <v>Robert Jackson</v>
       </c>
       <c r="C48" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Spruson And Ferguson</v>
       </c>
       <c r="D48" t="str">
-        <v>Belgium</v>
+        <v>Hong Kong</v>
       </c>
       <c r="E48" t="str">
-        <f>IFERROR(VLOOKUP(D48,P48:Q296,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D48,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
       </c>
       <c r="G48" t="str">
-        <v>vishnu.shankar@morganlewis.com</v>
+        <v>robert.jackson@spruson.com</v>
       </c>
       <c r="P48" t="str">
         <v>Croatia</v>
@@ -1762,12 +1945,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <f>PROPER(IFERROR(LEFT(B49,FIND(" ",B49)-1),B49))</f>
-        <v>0</v>
+        <v>Chen</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Chen Ma</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Hankun Law</v>
+      </c>
+      <c r="D49" t="str">
+        <v>China</v>
       </c>
       <c r="E49" t="str">
-        <f>IFERROR(VLOOKUP(D49,P49:Q297,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D49,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>chen.ma@hankunlaw.com</v>
       </c>
       <c r="P49" t="str">
         <v>Cuba</v>
@@ -1781,23 +1977,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Tomoko</v>
+        <v>Mette</v>
       </c>
       <c r="B50" t="str">
-        <v>Tomoko Fuminaga</v>
+        <v>Mette Neve</v>
       </c>
       <c r="C50" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Clemens Law</v>
       </c>
       <c r="D50" t="str">
-        <v>Japan</v>
+        <v>Poland</v>
       </c>
       <c r="E50" t="str">
-        <f>IFERROR(VLOOKUP(D50,P50:Q298,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D50,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
       </c>
       <c r="G50" t="str">
-        <v>tomoko.fuminaga@morganlewis.com</v>
+        <v>neve@clemenslaw.com</v>
       </c>
       <c r="P50" t="str">
         <v>Cyprus</v>
@@ -1811,12 +2009,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <f>PROPER(IFERROR(LEFT(B51,FIND(" ",B51)-1),B51))</f>
-        <v>0</v>
+        <v>Sukhan</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Sukhan Kim</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Arnold And Porter</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Korea (South)</v>
       </c>
       <c r="E51" t="str">
-        <f>IFERROR(VLOOKUP(D51,P51:Q299,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D51,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>sukhan.kim@arnoldporter.com</v>
       </c>
       <c r="P51" t="str">
         <v>Czech Republic</v>
@@ -1830,23 +2041,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Alexandre</v>
+        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
       </c>
       <c r="B52" t="str">
-        <v>Alexandre Bailly</v>
+        <v/>
       </c>
       <c r="C52" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>France</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <f>IFERROR(VLOOKUP(D52,P52:Q300,2,FALSE),"Not Found")</f>
-        <v>Not Found</v>
+        <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
       </c>
       <c r="G52" t="str">
-        <v>alexandre.bailly@morganlewis.com</v>
+        <v/>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -472,16 +472,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>=PROPER(IFERROR(LEFT(B3,FIND(" ",B3)-1),B3))</v>
+        <v>Olivier</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Olivier Chambord</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>France</v>
       </c>
       <c r="E3" t="str">
         <v>=IFERROR(VLOOKUP(D3,P2:Q260,2,FALSE),"Not Found")</v>
@@ -490,7 +490,7 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>olivier.chambord@morganlewis.com</v>
       </c>
       <c r="P3" t="str">
         <v>Albania</v>
@@ -536,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>=PROPER(IFERROR(LEFT(B5,FIND(" ",B5)-1),B5))</v>
+        <v>James</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>James P Bradley</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Singapore</v>
       </c>
       <c r="E5" t="str">
         <v>=IFERROR(VLOOKUP(D5,P2:Q260,2,FALSE),"Not Found")</v>
@@ -554,7 +554,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>james.bradley@morganlewis.com</v>
       </c>
       <c r="P5" t="str">
         <v>Andorra</v>
@@ -568,16 +568,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>=PROPER(IFERROR(LEFT(B6,FIND(" ",B6)-1),B6))</v>
+        <v>Alexandra</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Alexandra Rodina</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E6" t="str">
         <v>=IFERROR(VLOOKUP(D6,P2:Q260,2,FALSE),"Not Found")</v>
@@ -586,7 +586,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>alexandra.rodina@kennedyslaw.com</v>
       </c>
       <c r="P6" t="str">
         <v>Anguilla</v>
@@ -696,16 +696,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>=PROPER(IFERROR(LEFT(B10,FIND(" ",B10)-1),B10))</v>
+        <v>Tomoko</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Tomoko Fuminaga</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Japan</v>
       </c>
       <c r="E10" t="str">
         <v>=IFERROR(VLOOKUP(D10,P2:Q260,2,FALSE),"Not Found")</v>
@@ -714,7 +714,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>tomoko.fuminaga@morganlewis.com</v>
       </c>
       <c r="P10" t="str">
         <v>Aruba</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>=PROPER(IFERROR(LEFT(B12,FIND(" ",B12)-1),B12))</v>
+        <v>Amanda</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>Amanda Beaumont</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E12" t="str">
         <v>=IFERROR(VLOOKUP(D12,P2:Q260,2,FALSE),"Not Found")</v>
@@ -778,7 +778,7 @@
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>amanda.beaumont@kennedyslaw.com</v>
       </c>
       <c r="P12" t="str">
         <v>Austria</v>
@@ -792,16 +792,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>=PROPER(IFERROR(LEFT(B13,FIND(" ",B13)-1),B13))</v>
+        <v>Alberto</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Alberto Bunge</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="E13" t="str">
         <v>=IFERROR(VLOOKUP(D13,P2:Q260,2,FALSE),"Not Found")</v>
@@ -810,7 +810,7 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>alberto.bunge@kennedyslaw.com</v>
       </c>
       <c r="P13" t="str">
         <v>Azerbaijan</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>=PROPER(IFERROR(LEFT(B15,FIND(" ",B15)-1),B15))</v>
+        <v>Andrea</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>Andrea Dougall</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>the UAE</v>
       </c>
       <c r="E15" t="str">
         <v>=IFERROR(VLOOKUP(D15,P2:Q260,2,FALSE),"Not Found")</v>
@@ -874,7 +874,7 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>andrea.dougall@morganlewis.com</v>
       </c>
       <c r="P15" t="str">
         <v>Bahrain</v>
@@ -888,16 +888,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>=PROPER(IFERROR(LEFT(B16,FIND(" ",B16)-1),B16))</v>
+        <v>Bingna</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>Bingna Guo</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>China</v>
       </c>
       <c r="E16" t="str">
         <v>=IFERROR(VLOOKUP(D16,P2:Q260,2,FALSE),"Not Found")</v>
@@ -906,7 +906,7 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>bingna.guo@morganlewis.com</v>
       </c>
       <c r="P16" t="str">
         <v>Bangladesh</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>=PROPER(IFERROR(LEFT(B17,FIND(" ",B17)-1),B17))</v>
+        <v>Alfonso</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>Alfonso De Ramos</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>Spain</v>
       </c>
       <c r="E17" t="str">
         <v>=IFERROR(VLOOKUP(D17,P2:Q260,2,FALSE),"Not Found")</v>
@@ -938,7 +938,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>alfonso.deramos@kennedyslaw.com</v>
       </c>
       <c r="P17" t="str">
         <v>Barbados</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>=PROPER(IFERROR(LEFT(B23,FIND(" ",B23)-1),B23))</v>
+        <v>Adam</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Adam Longney</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E23" t="str">
         <v>=IFERROR(VLOOKUP(D23,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1130,7 +1130,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>adam.longney@kennedyslaw.com</v>
       </c>
       <c r="P23" t="str">
         <v>Bhutan</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>=PROPER(IFERROR(LEFT(B34,FIND(" ",B34)-1),B34))</v>
+        <v>Nick</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Nick Bolter</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Belgium</v>
       </c>
       <c r="E34" t="str">
         <v>=IFERROR(VLOOKUP(D34,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1482,7 +1482,7 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>nick.bolter@morganlewis.com</v>
       </c>
       <c r="P34" t="str">
         <v>Cambodia</v>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>=PROPER(IFERROR(LEFT(B36,FIND(" ",B36)-1),B36))</v>
+        <v>Alex</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Alex Nurse</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E36" t="str">
         <v>=IFERROR(VLOOKUP(D36,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1546,7 +1546,7 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>alex.nurse@kennedyslaw.com</v>
       </c>
       <c r="P36" t="str">
         <v>Canada</v>
@@ -1560,16 +1560,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>=PROPER(IFERROR(LEFT(B37,FIND(" ",B37)-1),B37))</v>
+        <v>Andy</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>Andy Purssell</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>England</v>
       </c>
       <c r="E37" t="str">
         <v>=IFERROR(VLOOKUP(D37,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1578,7 +1578,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>andrew.purssell@kennedyslaw.com</v>
       </c>
       <c r="P37" t="str">
         <v>Cape Verde</v>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>=PROPER(IFERROR(LEFT(B42,FIND(" ",B42)-1),B42))</v>
+        <v>Alistair</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Alistair Darroch</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>New Zealand</v>
       </c>
       <c r="E42" t="str">
         <v>=IFERROR(VLOOKUP(D42,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1739,7 +1739,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>alistair.darroch@kennedyslaw.com</v>
       </c>
       <c r="P42" t="str">
         <v>China</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>=PROPER(IFERROR(LEFT(B47,FIND(" ",B47)-1),B47))</v>
+        <v>Alberto</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>Alberto Torres</v>
       </c>
       <c r="C47" t="str">
-        <v/>
+        <v>Kennedys</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>Mexico</v>
       </c>
       <c r="E47" t="str">
         <v>=IFERROR(VLOOKUP(D47,P2:Q260,2,FALSE),"Not Found")</v>
@@ -1899,7 +1899,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>alberto.torres@kennedyslaw.com</v>
       </c>
       <c r="P47" t="str">
         <v>Cote D'ivoire</v>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>=PROPER(IFERROR(LEFT(B52,FIND(" ",B52)-1),B52))</v>
+        <v>Alexandre</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>Alexandre Bailly</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>Morgan Lewis And Bockius LLP</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>France</v>
       </c>
       <c r="E52" t="str">
         <v>=IFERROR(VLOOKUP(D52,P2:Q260,2,FALSE),"Not Found")</v>
@@ -2059,7 +2059,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>alexandre.bailly@morganlewis.com</v>
       </c>
       <c r="P52" t="str">
         <v>Democratic Republic of the Congo</v>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -429,289 +429,24 @@
         <v>Country</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://www.giambronelaw.com/site/people/profile/olu.ajasa</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Olu Ajasa</v>
-      </c>
-      <c r="C36" t="str">
-        <v>o.ajasa@giambronelaw.com</v>
-      </c>
-      <c r="D36" t="str">
-        <v>4402071839482</v>
-      </c>
-      <c r="E36" t="str">
-        <v>Giambrone International Law Firm</v>
-      </c>
-      <c r="G36" t="str">
-        <v>England</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>.</v>
-      </c>
-    </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>.</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://almtlegal.com/partner-sandhya-susanna-bhaskar-.htm</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Sandhya Susanna Bhaskar</v>
-      </c>
-      <c r="C52" t="str">
-        <v>sbhaskar@almtlegal.com</v>
-      </c>
-      <c r="D52" t="str">
-        <v>918040160000</v>
-      </c>
-      <c r="E52" t="str">
-        <v>ALMT Legal</v>
-      </c>
-      <c r="G52" t="str">
-        <v>India</v>
+        <v>https://www.morganlewis.com/bios/nickbolter</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Nick Bolter</v>
+      </c>
+      <c r="C41" t="str">
+        <v>nick.bolter@morganlewis.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>442032015518</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Morgan Lewis And Bockius LLP</v>
+      </c>
+      <c r="G41" t="str">
+        <v>England</v>
       </c>
     </row>
   </sheetData>

--- a/src/baseFiles/excel/Sheet.xlsx
+++ b/src/baseFiles/excel/Sheet.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -429,30 +429,1183 @@
         <v>Country</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.beauchamps.ie/our-people/anne-doyle</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Anne Doyle</v>
+      </c>
+      <c r="C2" t="str">
+        <v>a.doyle@beauchamps.ie</v>
+      </c>
+      <c r="D2" t="str">
+        <v>353014180615</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Beauchamps</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="H2" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://latamlex.com/en/detalle-perfil/?id_=282</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Dennis Matamoros Batson</v>
+      </c>
+      <c r="C3" t="str">
+        <v>dmatamoros@latamlex.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>50422310323</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Latam Lex</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Honduras</v>
+      </c>
+      <c r="H3" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.meyer-koering.de/anwaelte/andreas-jahn/</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Andreas Jahn</v>
+      </c>
+      <c r="C4" t="str">
+        <v>jahn@meyer-koering.de</v>
+      </c>
+      <c r="D4" t="str">
+        <v>492287263643</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Meyer Köring</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="H4" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.wiersholm.no/mennesker/jma</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Jon Martin Atkinson</v>
+      </c>
+      <c r="C5" t="str">
+        <v>jma@wiersholm.no</v>
+      </c>
+      <c r="D5" t="str">
+        <v>4721021127</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Wiersholm</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="H5" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.simwolf.com.au/team_member/kristi-foale/</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Kristi Foale</v>
+      </c>
+      <c r="C6" t="str">
+        <v>kristi.foale@simwolf.com.au</v>
+      </c>
+      <c r="D6" t="str">
+        <v>61362261200</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Simmons Wolfhagen</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="H6" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://consortiumlegal.com/abogados/fernando-lopez/</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Fernando López</v>
+      </c>
+      <c r="C7" t="str">
+        <v>felopez@consortiumlegal.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>50422211002102</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Consortium Legal</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Honduras</v>
+      </c>
+      <c r="H7" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.hankunlaw.com/en/portal/article/index/cid/2/id/12869.html</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Chung Kai Lam (clarence)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>clarence.chung@hankunlaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>8675536806588</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Hankun Law</v>
+      </c>
+      <c r="G8" t="str">
+        <v>China</v>
+      </c>
+      <c r="H8" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://foyen.no/en/people/anette-thunes/</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Anette Thunes</v>
+      </c>
+      <c r="C9" t="str">
+        <v>anette.thunes@foyen.no</v>
+      </c>
+      <c r="D9" t="str">
+        <v>4745267991</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Foyen</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="H9" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.magnussonlaw.com/people/lilli-parbo/</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Lilli Parbo</v>
+      </c>
+      <c r="C10" t="str">
+        <v>lilli.parbo@magnussonlaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>358445194316</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Magnusson Law</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="H10" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.sheppardmullin.com/wchen</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Weiguo (will) Chen</v>
+      </c>
+      <c r="C11" t="str">
+        <v>wchen@sheppardmullin.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>16508152692</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Sheppard Mullin</v>
+      </c>
+      <c r="G11" t="str">
+        <v>China</v>
+      </c>
+      <c r="H11" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://www.harneys.com/people/joshua-mangeot/</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Joshua Mangeot</v>
+      </c>
+      <c r="C12" t="str">
+        <v>joshua.mangeot@harneys.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>12848524387</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Harneys</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Dominican Republic</v>
+      </c>
+      <c r="H12" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.tannerdewitt.com/our-people/tim-au/</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Tim Au</v>
+      </c>
+      <c r="C13" t="str">
+        <v>timau@tannerdewitt.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>85225735000</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Tanner DeWitt</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Hong Kong</v>
+      </c>
+      <c r="H13" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://legalis.no/advokater/mathias-s-bodtker</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Mathias Sejersted Bødtker</v>
+      </c>
+      <c r="C14" t="str">
+        <v>mathias.bodtker@legalis.no</v>
+      </c>
+      <c r="D14" t="str">
+        <v>22402302</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Legalis</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="H14" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.skadden.com/professionals/k/kumaki-akira</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Akira Kumaki</v>
+      </c>
+      <c r="C15" t="str">
+        <v>akira.kumaki@skadden.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>81335682448</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Skadden</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="H15" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.mourant.com/profile/view/3579/paul-christopher</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Paul Christopher</v>
+      </c>
+      <c r="C16" t="str">
+        <v>paul.christopher@mourant.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>85239955701</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mourant</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Hong Kong</v>
+      </c>
+      <c r="H16" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.fangdalaw.com/people/jane-chen/</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Jane Chen</v>
+      </c>
+      <c r="C17" t="str">
+        <v>jie.chen@fangdalaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>862122081166</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Fangda Partners</v>
+      </c>
+      <c r="G17" t="str">
+        <v>China</v>
+      </c>
+      <c r="H17" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.sheppardmullin.com/oheinisch</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Oliver Heinisch</v>
+      </c>
+      <c r="C18" t="str">
+        <v>oheinisch@sheppardmullin.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>442031787833</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Sheppard Mullin</v>
+      </c>
+      <c r="G18" t="str">
+        <v>England</v>
+      </c>
+      <c r="H18" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.gornitzky.com/attorneys/aline-wekselman/</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Aline Wekselman</v>
+      </c>
+      <c r="C19" t="str">
+        <v>alinew@gornitzky.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>97237109191</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Gornitzky And Co</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="H19" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://barlaw.co.il/attorneys/ben-moshe-hagit</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Hagit Ben Moshe</v>
+      </c>
+      <c r="C20" t="str">
+        <v>hbenmoshe@barlaw.co.il</v>
+      </c>
+      <c r="D20" t="str">
+        <v>97236400600</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Barnea And Co</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="H20" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.gop.it/people_view.php?id=38</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Matteo Bragantini</v>
+      </c>
+      <c r="C21" t="str">
+        <v>mbragantini@gop.it</v>
+      </c>
+      <c r="D21" t="str">
+        <v>3902763741</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Gianni And Origoni</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="H21" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://myersfletcher.com/attorney/alexis-robinson/</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Alexis Robinson</v>
+      </c>
+      <c r="C22" t="str">
+        <v>alexis.robinson@mfg.com.jm</v>
+      </c>
+      <c r="D22" t="str">
+        <v>8769225860</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Myers Fletcher And Gordon</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Jamaica</v>
+      </c>
+      <c r="H22" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://www.sheppardmullin.com/jderenne</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Jacques Derenne</v>
+      </c>
+      <c r="C23" t="str">
+        <v>jderenne@sheppardmullin.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>3222907905</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Sheppard Mullin</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Brussels</v>
+      </c>
+      <c r="H23" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://www.whitecase.com/people/eugene-man</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Eugene Man</v>
+      </c>
+      <c r="C24" t="str">
+        <v>eman@whitecase.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>85228228728</v>
+      </c>
+      <c r="E24" t="str">
+        <v>White and Case</v>
+      </c>
+      <c r="G24" t="str">
+        <v>China</v>
+      </c>
+      <c r="H24" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://www.cliffordchance.com/people_and_places/people/partners/it/charles_adams.html</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Charles Adams Global</v>
+      </c>
+      <c r="C25" t="str">
+        <v>kirstie.allen@cliffordchance.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>3902806341</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Clifford Chance</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="H25" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://meitar.com/en/people/alkalay-yotam/</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Yotam Alkalay</v>
+      </c>
+      <c r="C26" t="str">
+        <v>yotama@meitar.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>97236148893</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Meitar Law Offices</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="H26" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://www.morganlewis.com/bios/jamesbradley</v>
+      </c>
+      <c r="B27" t="str">
+        <v>James P Bradley</v>
+      </c>
+      <c r="C27" t="str">
+        <v>james.bradley@morganlewis.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>6563893022</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Morgan Lewis And Bockius LLP</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="H27" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://www.dittmar.fi/people/eeva-lotta-kivela/</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Eeva-lotta Kivelä</v>
+      </c>
+      <c r="C28" t="str">
+        <v>eeva-lotta.kivela@dittmar.fi</v>
+      </c>
+      <c r="D28" t="str">
+        <v>358406792616</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Dittmar And Indrenius</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="H28" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://www.anandandanand.com/gautam-razdan/</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Gautam Razdan</v>
+      </c>
+      <c r="C29" t="str">
+        <v>gautam@anandandanand.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>911204059300</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Anand And Anand</v>
+      </c>
+      <c r="G29" t="str">
+        <v>India</v>
+      </c>
+      <c r="H29" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.spruson.com/our-people/duarte-lima/</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Duarte Lima</v>
+      </c>
+      <c r="C30" t="str">
+        <v>duarte.lima@spruson.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>6563337200</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Spruson And Ferguson</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="H30" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.schoenherr.eu/people/detail/oana-grecu</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Oana Grecu</v>
+      </c>
+      <c r="C31" t="str">
+        <v>o.grecu@schoenherr.eu</v>
+      </c>
+      <c r="D31" t="str">
+        <v>40212064670</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Schoenherr</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="H31" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.dbh.com.au/team/fiona-campbell/</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Fiona Campbell</v>
+      </c>
+      <c r="C32" t="str">
+        <v>fcampbell@dbh.com.au</v>
+      </c>
+      <c r="D32" t="str">
+        <v>882163368</v>
+      </c>
+      <c r="E32" t="str">
+        <v>DBH Lawyers</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="H32" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.lw.com/en/people/najla-algadi</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Najla S Al-gadi</v>
+      </c>
+      <c r="C33" t="str">
+        <v>najla.al-gadi@lw.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>966112072506</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Latham And Watkins</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="H33" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.cobalt.legal/people/rokas-daugela/</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Rokas Daugėla</v>
+      </c>
+      <c r="C34" t="str">
+        <v>rokas.daugela@cobalt.legal</v>
+      </c>
+      <c r="D34" t="str">
+        <v>37068884503</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Cobalt Legal</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Lithuania</v>
+      </c>
+      <c r="H34" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.njordlaw.com/frej-campen-wolthers</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Frej Campen Wolthers</v>
+      </c>
+      <c r="C35" t="str">
+        <v>fcw@njordlaw.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2824569137106</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Njord Law</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Not Found</v>
+      </c>
+      <c r="H35" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.arnoldporter.com/en/people/m/mervis-hilton</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Hilton Mervis</v>
+      </c>
+      <c r="C36" t="str">
+        <v>hilton.mervis@arnoldporter.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>4402077866215</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Arnold And Porter</v>
+      </c>
+      <c r="G36" t="str">
+        <v>England</v>
+      </c>
+      <c r="H36" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://en.tclawfirm.com/content-52.html</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Lianxi Huang</v>
+      </c>
+      <c r="C37" t="str">
+        <v>hlx@tclawfirm.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>8657187902000</v>
+      </c>
+      <c r="E37" t="str">
+        <v>TC Law Firm</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Hong Kong</v>
+      </c>
+      <c r="H37" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.shinkim.com/eng/member/view/313</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Bok-gi Choi</v>
+      </c>
+      <c r="C38" t="str">
+        <v>bgchoi@shinkim.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>8223161613</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Shin And Kim</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Korea (South)</v>
+      </c>
+      <c r="H38" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://dsklegal.com/team/jayesh-kothari/</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Jayesh Kothari</v>
+      </c>
+      <c r="C39" t="str">
+        <v>jayesh.kothari@dsklegal.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>912266588012</v>
+      </c>
+      <c r="E39" t="str">
+        <v>DSK Legal</v>
+      </c>
+      <c r="G39" t="str">
+        <v>India</v>
+      </c>
+      <c r="H39" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://higgsjohnson.com/person/stephen-j-melvin/</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Stephen J Melvin</v>
+      </c>
+      <c r="C40" t="str">
+        <v>smelvin@higgsjohnson.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2423761459</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Higgs And Johnson</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Jamaica</v>
+      </c>
+      <c r="H40" t="str">
+        <v>.</v>
+      </c>
+    </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.morganlewis.com/bios/nickbolter</v>
+        <v>https://www.pavia-ansaldo.it/en/filippo-fioretti/</v>
       </c>
       <c r="B41" t="str">
-        <v>Nick Bolter</v>
+        <v>Fioretti Filippo</v>
       </c>
       <c r="C41" t="str">
-        <v>nick.bolter@morganlewis.com</v>
+        <v>filippo.fioretti@pavia-ansaldo.it</v>
       </c>
       <c r="D41" t="str">
-        <v>442032015518</v>
+        <v>3906695161</v>
       </c>
       <c r="E41" t="str">
-        <v>Morgan Lewis And Bockius LLP</v>
+        <v>Pavia And Ansaldo</v>
       </c>
       <c r="G41" t="str">
-        <v>England</v>
+        <v>Italy</v>
+      </c>
+      <c r="H41" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.havelpartners.com/team/lukas-syrovy/</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Lukáš Syrový</v>
+      </c>
+      <c r="C42" t="str">
+        <v>lukas.syrovy@havelpartners.cz</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>Havel Partners</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Czech Republic</v>
+      </c>
+      <c r="H42" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://almtlegal.com/partner-sandhya-susanna-bhaskar-.htm</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Sandhya Susanna Bhaskar</v>
+      </c>
+      <c r="C43" t="str">
+        <v>sbhaskar@almtlegal.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>918040160000</v>
+      </c>
+      <c r="E43" t="str">
+        <v>ALMT Legal</v>
+      </c>
+      <c r="G43" t="str">
+        <v>India</v>
+      </c>
+      <c r="H43" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.hannessnellman.com/people/all/matias-moberg/</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Matias Moberg</v>
+      </c>
+      <c r="C44" t="str">
+        <v>matias.moberg@hannessnellman.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>358408674634</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Hannes Snellman</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="H44" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://pglex.it/en/professionals/alessandro-dolce/</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Alessandro Dolce</v>
+      </c>
+      <c r="C45" t="str">
+        <v>adolce@pglex.it</v>
+      </c>
+      <c r="D45" t="str">
+        <v>3902303051</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Pedersoli</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="H45" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.giambronelaw.com/site/people/profile/c.bousetta</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Chayma Bousetta</v>
+      </c>
+      <c r="C46" t="str">
+        <v>c.bousetta@giambronelaw.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>21671860856</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Giambrone International Law Firm</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Tunisia</v>
+      </c>
+      <c r="H46" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://veritaslegal.in/staff-member/150areez-gazdar/</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Areez Gazdar</v>
+      </c>
+      <c r="C47" t="str">
+        <v>areez.gazdar@veritaslegal.in</v>
+      </c>
+      <c r="D47" t="str">
+        <v>912243686700</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Veritas Legal</v>
+      </c>
+      <c r="G47" t="str">
+        <v>India</v>
+      </c>
+      <c r="H47" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://szecskay.com/team/attila-jasdi/</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Attila Jásdi</v>
+      </c>
+      <c r="C48" t="str">
+        <v>attila.jasdi@szecskay.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>3614723000</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Szecskay</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Hungary</v>
+      </c>
+      <c r="H48" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.sheppardmullin.com/wjung</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Wonsun Jung</v>
+      </c>
+      <c r="C49" t="str">
+        <v>wjung@sheppardmullin.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>82260303062</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Sheppard Mullin</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Korea (South)</v>
+      </c>
+      <c r="H49" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.thommessen.no/en/people/nanette-arvesen</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Nanette Arvesen Advokat</v>
+      </c>
+      <c r="C50" t="str">
+        <v>nar@thommessen.no</v>
+      </c>
+      <c r="D50" t="str">
+        <v>4795156519</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Thommessen</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="H50" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.walkersglobal.com/en/people/d/dunne-nick</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Nick Dunne</v>
+      </c>
+      <c r="C51" t="str">
+        <v>nick.dunne@walkersglobal.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>13458144548</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Walkers</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Cayman Islands</v>
+      </c>
+      <c r="H51" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.ebnlaw.co.il/team-members/noa-bar-shir/</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Noa Bar-shir</v>
+      </c>
+      <c r="C52" t="str">
+        <v>noabs@ebnlaw.co.il</v>
+      </c>
+      <c r="D52" t="str">
+        <v>97237770120</v>
+      </c>
+      <c r="E52" t="str">
+        <v>EBN</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Israel</v>
+      </c>
+      <c r="H52" t="str">
+        <v>.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S53"/>
   </ignoredErrors>
 </worksheet>
 </file>